--- a/Requirements/Documents/Excel Sheets/Master Sheet for Batch.xlsx
+++ b/Requirements/Documents/Excel Sheets/Master Sheet for Batch.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rashmi kapoor\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rashmi kapoor\Desktop\NSKFDC APP\trunk\Requirements\Documents\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{44062B6B-E928-419F-9CDB-3B91AA317EEC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5000F589-1361-43BB-B131-F5743A8C7820}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="670" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="670" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="DropDown Values" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1 (2)" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
+    <sheet name="DropDown Values" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1 (2)" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -119,6 +120,80 @@
     <author>prateek kapoor</author>
   </authors>
   <commentList>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{F4C7C1C1-D91D-416F-B34F-EB785532DA05}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>prateek kapoor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Centre details
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{DB399AC7-2F03-4CFB-B6D4-84FDD211C769}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>prateek kapoor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+centre details
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{B2762D90-6BE2-4C81-8122-1622BE06A739}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>prateek kapoor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Candidate Details</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A12" authorId="0" shapeId="0" xr:uid="{F2686EC6-7C54-46F0-8D5B-B6C09DA76D89}">
       <text>
         <r>
@@ -192,6 +267,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="X26" authorId="0" shapeId="0" xr:uid="{25E2D42B-43A2-403E-AD19-98D60F700B93}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>prateek kapoor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+relation type in db</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB26" authorId="0" shapeId="0" xr:uid="{59D48215-187F-42BC-9BD8-7BBA635AF41A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>prateek kapoor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+complete address with block number and colony</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AD26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
@@ -253,6 +376,115 @@
     <author>prateek kapoor</author>
   </authors>
   <commentList>
+    <comment ref="Z3" authorId="0" shapeId="0" xr:uid="{70AA4A7A-2685-47BC-AF5E-400670FE645B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>prateek kapoor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+relation type in db</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD3" authorId="0" shapeId="0" xr:uid="{A67F0A82-1E59-429C-8162-B794619EAB18}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>prateek kapoor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+complete address with block number and colony</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF3" authorId="0" shapeId="0" xr:uid="{8A06B804-0240-4BDE-98FD-971CECE78D93}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>prateek kapoor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+yes or no
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG3" authorId="0" shapeId="0" xr:uid="{2EA8DA7B-9075-4632-82FD-CE83E9A61A77}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>prateek kapoor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+It is pass or not appear
+Payout will be given to candidates who are pass
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>prateek kapoor</author>
+  </authors>
+  <commentList>
     <comment ref="AB6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
@@ -309,7 +541,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="981">
   <si>
     <t>FirstNameCandidate</t>
   </si>
@@ -3247,6 +3479,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Batch ID</t>
+  </si>
+  <si>
+    <t>Batch Details</t>
   </si>
 </sst>
 </file>
@@ -3741,7 +3979,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3896,9 +4134,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3920,6 +4155,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3938,29 +4175,20 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3980,6 +4208,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3990,8 +4227,37 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4310,7 +4576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB61"/>
   <sheetViews>
-    <sheetView topLeftCell="AU1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BD4" sqref="BD4"/>
     </sheetView>
   </sheetViews>
@@ -4362,182 +4628,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="77"/>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="77"/>
-      <c r="AS1" s="77"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="77"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="78"/>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="78"/>
+      <c r="BA1" s="78"/>
+      <c r="BB1" s="78"/>
     </row>
     <row r="2" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="77"/>
-      <c r="AK2" s="77"/>
-      <c r="AL2" s="77"/>
-      <c r="AM2" s="77"/>
-      <c r="AN2" s="77"/>
-      <c r="AO2" s="77"/>
-      <c r="AP2" s="77"/>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="77"/>
-      <c r="AS2" s="77"/>
-      <c r="AT2" s="77"/>
-      <c r="AU2" s="77"/>
-      <c r="AV2" s="77"/>
-      <c r="AW2" s="77"/>
-      <c r="AX2" s="77"/>
-      <c r="AY2" s="77"/>
-      <c r="AZ2" s="77"/>
-      <c r="BA2" s="77"/>
-      <c r="BB2" s="77"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="78"/>
+      <c r="AO2" s="78"/>
+      <c r="AP2" s="78"/>
+      <c r="AQ2" s="78"/>
+      <c r="AR2" s="78"/>
+      <c r="AS2" s="78"/>
+      <c r="AT2" s="78"/>
+      <c r="AU2" s="78"/>
+      <c r="AV2" s="78"/>
+      <c r="AW2" s="78"/>
+      <c r="AX2" s="78"/>
+      <c r="AY2" s="78"/>
+      <c r="AZ2" s="78"/>
+      <c r="BA2" s="78"/>
+      <c r="BB2" s="78"/>
     </row>
     <row r="3" spans="1:54" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>906</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="79"/>
-      <c r="AC3" s="80" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="81" t="s">
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="81"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="AH3" s="81"/>
-      <c r="AI3" s="81"/>
-      <c r="AJ3" s="81"/>
-      <c r="AK3" s="81"/>
-      <c r="AL3" s="81"/>
-      <c r="AM3" s="81"/>
-      <c r="AN3" s="81"/>
-      <c r="AO3" s="81"/>
-      <c r="AP3" s="81"/>
-      <c r="AQ3" s="81"/>
-      <c r="AR3" s="81"/>
-      <c r="AS3" s="81"/>
-      <c r="AT3" s="81"/>
-      <c r="AU3" s="81"/>
-      <c r="AV3" s="81"/>
-      <c r="AW3" s="78" t="s">
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="82"/>
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="82"/>
+      <c r="AM3" s="82"/>
+      <c r="AN3" s="82"/>
+      <c r="AO3" s="82"/>
+      <c r="AP3" s="82"/>
+      <c r="AQ3" s="82"/>
+      <c r="AR3" s="82"/>
+      <c r="AS3" s="82"/>
+      <c r="AT3" s="82"/>
+      <c r="AU3" s="82"/>
+      <c r="AV3" s="82"/>
+      <c r="AW3" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="AX3" s="78"/>
-      <c r="AY3" s="78"/>
-      <c r="AZ3" s="76" t="s">
+      <c r="AX3" s="79"/>
+      <c r="AY3" s="79"/>
+      <c r="AZ3" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="BA3" s="76"/>
-      <c r="BB3" s="76"/>
+      <c r="BA3" s="77"/>
+      <c r="BB3" s="77"/>
     </row>
     <row r="4" spans="1:54" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
@@ -7407,8 +7673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView topLeftCell="R17" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="U17" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:AF29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7448,17 +7714,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="83" t="s">
         <v>938</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="84"/>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
       <c r="E1" s="49"/>
       <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="68" t="s">
         <v>940</v>
       </c>
       <c r="B2" s="59" t="str">
@@ -7476,10 +7742,10 @@
       <c r="A3" s="41" t="s">
         <v>909</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="90" t="s">
         <v>918</v>
       </c>
-      <c r="C3" s="93"/>
+      <c r="C3" s="91"/>
       <c r="D3" s="62"/>
       <c r="E3" s="63"/>
       <c r="F3" s="63"/>
@@ -7488,10 +7754,10 @@
       <c r="A4" s="42" t="s">
         <v>910</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="92" t="s">
         <v>939</v>
       </c>
-      <c r="C4" s="95"/>
+      <c r="C4" s="93"/>
       <c r="D4" s="62"/>
       <c r="E4" s="63"/>
       <c r="F4" s="63"/>
@@ -7500,10 +7766,10 @@
       <c r="A5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="92" t="s">
         <v>941</v>
       </c>
-      <c r="C5" s="95"/>
+      <c r="C5" s="93"/>
       <c r="D5" s="64"/>
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
@@ -7512,8 +7778,8 @@
       <c r="A6" s="42" t="s">
         <v>911</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="91"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="89"/>
       <c r="D6" s="64"/>
       <c r="E6" s="63"/>
       <c r="F6" s="63"/>
@@ -7522,8 +7788,8 @@
       <c r="A7" s="35" t="s">
         <v>912</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="91"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="89"/>
       <c r="D7" s="62"/>
       <c r="E7" s="62"/>
       <c r="F7" s="62"/>
@@ -7578,43 +7844,43 @@
       <c r="E12" s="65"/>
       <c r="F12" s="65"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
         <v>943</v>
       </c>
       <c r="B13" s="51"/>
       <c r="C13" s="52"/>
-      <c r="D13" s="68"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="63"/>
       <c r="F13" s="63"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>913</v>
       </c>
       <c r="B14" s="45"/>
       <c r="C14" s="46"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>914</v>
       </c>
       <c r="B15" s="45"/>
       <c r="C15" s="46"/>
-      <c r="D15" s="68"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="65"/>
       <c r="F15" s="65"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>915</v>
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="52"/>
-      <c r="D16" s="67"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="63"/>
       <c r="F16" s="63"/>
     </row>
@@ -7624,9 +7890,9 @@
       </c>
       <c r="B17" s="51"/>
       <c r="C17" s="52"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
     </row>
     <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
@@ -7636,9 +7902,9 @@
         <v>937</v>
       </c>
       <c r="C18" s="56"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
     </row>
     <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
@@ -7646,9 +7912,9 @@
       </c>
       <c r="B19" s="51"/>
       <c r="C19" s="52"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
     </row>
     <row r="20" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
@@ -7656,9 +7922,9 @@
       </c>
       <c r="B20" s="53"/>
       <c r="C20" s="54"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B21" s="48"/>
@@ -7685,51 +7951,51 @@
       <c r="F23" s="43"/>
     </row>
     <row r="24" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="82" t="s">
+      <c r="D24" s="85" t="s">
         <v>945</v>
       </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
       <c r="K24" s="87"/>
-      <c r="L24" s="84" t="s">
+      <c r="L24" s="94" t="s">
         <v>948</v>
       </c>
-      <c r="M24" s="85"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="82" t="s">
+      <c r="M24" s="95"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="85" t="s">
         <v>949</v>
       </c>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
       <c r="S24" s="87"/>
-      <c r="T24" s="82" t="s">
+      <c r="T24" s="85" t="s">
         <v>949</v>
       </c>
-      <c r="U24" s="83"/>
-      <c r="V24" s="83"/>
-      <c r="W24" s="82" t="s">
+      <c r="U24" s="86"/>
+      <c r="V24" s="86"/>
+      <c r="W24" s="85" t="s">
         <v>949</v>
       </c>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="83"/>
-      <c r="Z24" s="82" t="s">
+      <c r="X24" s="86"/>
+      <c r="Y24" s="86"/>
+      <c r="Z24" s="85" t="s">
         <v>949</v>
       </c>
-      <c r="AA24" s="83"/>
-      <c r="AB24" s="83"/>
-      <c r="AC24" s="82" t="s">
+      <c r="AA24" s="86"/>
+      <c r="AB24" s="86"/>
+      <c r="AC24" s="85" t="s">
         <v>949</v>
       </c>
-      <c r="AD24" s="83"/>
-      <c r="AE24" s="83"/>
-      <c r="AF24" s="101"/>
-      <c r="AG24" s="100"/>
-      <c r="AH24" s="100"/>
+      <c r="AD24" s="86"/>
+      <c r="AE24" s="86"/>
+      <c r="AF24" s="76"/>
+      <c r="AG24" s="75"/>
+      <c r="AH24" s="75"/>
     </row>
     <row r="25" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7739,90 +8005,90 @@
       <c r="E26" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="70" t="s">
+      <c r="F26" s="69" t="s">
         <v>946</v>
       </c>
-      <c r="G26" s="70" t="s">
+      <c r="G26" s="69" t="s">
         <v>947</v>
       </c>
-      <c r="H26" s="70" t="s">
+      <c r="H26" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="I26" s="70" t="s">
+      <c r="I26" s="69" t="s">
         <v>921</v>
       </c>
-      <c r="J26" s="70" t="s">
+      <c r="J26" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="70" t="s">
+      <c r="K26" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="L26" s="70" t="s">
+      <c r="L26" s="69" t="s">
         <v>922</v>
       </c>
-      <c r="M26" s="70" t="s">
+      <c r="M26" s="69" t="s">
         <v>923</v>
       </c>
-      <c r="N26" s="70" t="s">
+      <c r="N26" s="69" t="s">
         <v>924</v>
       </c>
-      <c r="O26" s="70" t="s">
+      <c r="O26" s="69" t="s">
         <v>950</v>
       </c>
-      <c r="P26" s="70" t="s">
+      <c r="P26" s="69" t="s">
         <v>853</v>
       </c>
-      <c r="Q26" s="70" t="s">
+      <c r="Q26" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="R26" s="70" t="s">
+      <c r="R26" s="69" t="s">
         <v>951</v>
       </c>
-      <c r="S26" s="70" t="s">
+      <c r="S26" s="69" t="s">
         <v>928</v>
       </c>
-      <c r="T26" s="70" t="s">
+      <c r="T26" s="69" t="s">
         <v>953</v>
       </c>
-      <c r="U26" s="70" t="s">
+      <c r="U26" s="69" t="s">
         <v>952</v>
       </c>
-      <c r="V26" s="70" t="s">
+      <c r="V26" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="W26" s="71" t="s">
+      <c r="W26" s="70" t="s">
         <v>954</v>
       </c>
-      <c r="X26" s="71" t="s">
+      <c r="X26" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="Y26" s="71" t="s">
+      <c r="Y26" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="Z26" s="71" t="s">
+      <c r="Z26" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AA26" s="71" t="s">
+      <c r="AA26" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="AB26" s="71" t="s">
+      <c r="AB26" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="AC26" s="71" t="s">
+      <c r="AC26" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="AD26" s="71" t="s">
+      <c r="AD26" s="70" t="s">
         <v>930</v>
       </c>
-      <c r="AE26" s="71" t="s">
+      <c r="AE26" s="70" t="s">
         <v>975</v>
       </c>
-      <c r="AF26" s="72" t="s">
+      <c r="AF26" s="71" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="60" x14ac:dyDescent="0.25">
-      <c r="D27" s="75">
+      <c r="D27" s="74">
         <v>1</v>
       </c>
       <c r="E27" s="51" t="s">
@@ -7840,7 +8106,7 @@
       <c r="I27" s="51" t="s">
         <v>884</v>
       </c>
-      <c r="J27" s="73">
+      <c r="J27" s="72">
         <v>32172</v>
       </c>
       <c r="K27" s="55" t="s">
@@ -7855,7 +8121,7 @@
       <c r="N27" s="51" t="s">
         <v>961</v>
       </c>
-      <c r="O27" s="74" t="s">
+      <c r="O27" s="73" t="s">
         <v>962</v>
       </c>
       <c r="P27" s="51" t="s">
@@ -7974,6 +8240,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:S24"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D24:K24"/>
     <mergeCell ref="B7:C7"/>
@@ -7981,12 +8253,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="Z24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:S24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7995,6 +8261,360 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE5C98F-528E-4722-8922-B8ED1AD70BBF}">
+  <dimension ref="A1:AH6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="94" t="s">
+        <v>980</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="85" t="s">
+        <v>945</v>
+      </c>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="94" t="s">
+        <v>948</v>
+      </c>
+      <c r="O1" s="95"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="85" t="s">
+        <v>949</v>
+      </c>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="85" t="s">
+        <v>949</v>
+      </c>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="85" t="s">
+        <v>949</v>
+      </c>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="85" t="s">
+        <v>949</v>
+      </c>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="85" t="s">
+        <v>949</v>
+      </c>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="76"/>
+    </row>
+    <row r="2" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:34" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="101" t="s">
+        <v>979</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="101" t="s">
+        <v>909</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>911</v>
+      </c>
+      <c r="E3" s="101" t="s">
+        <v>910</v>
+      </c>
+      <c r="F3" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="104" t="s">
+        <v>946</v>
+      </c>
+      <c r="I3" s="104" t="s">
+        <v>947</v>
+      </c>
+      <c r="J3" s="104" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="104" t="s">
+        <v>921</v>
+      </c>
+      <c r="L3" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="104" t="s">
+        <v>922</v>
+      </c>
+      <c r="O3" s="104" t="s">
+        <v>923</v>
+      </c>
+      <c r="P3" s="104" t="s">
+        <v>924</v>
+      </c>
+      <c r="Q3" s="104" t="s">
+        <v>950</v>
+      </c>
+      <c r="R3" s="104" t="s">
+        <v>853</v>
+      </c>
+      <c r="S3" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="104" t="s">
+        <v>951</v>
+      </c>
+      <c r="U3" s="104" t="s">
+        <v>928</v>
+      </c>
+      <c r="V3" s="104" t="s">
+        <v>953</v>
+      </c>
+      <c r="W3" s="104" t="s">
+        <v>952</v>
+      </c>
+      <c r="X3" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="105" t="s">
+        <v>954</v>
+      </c>
+      <c r="Z3" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB3" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC3" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD3" s="105" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE3" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF3" s="105" t="s">
+        <v>930</v>
+      </c>
+      <c r="AG3" s="105" t="s">
+        <v>975</v>
+      </c>
+      <c r="AH3" s="106" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="107"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="101">
+        <v>1</v>
+      </c>
+      <c r="G4" s="108" t="s">
+        <v>956</v>
+      </c>
+      <c r="H4" s="108" t="s">
+        <v>955</v>
+      </c>
+      <c r="I4" s="108" t="s">
+        <v>957</v>
+      </c>
+      <c r="J4" s="108" t="s">
+        <v>958</v>
+      </c>
+      <c r="K4" s="108" t="s">
+        <v>884</v>
+      </c>
+      <c r="L4" s="109">
+        <v>32172</v>
+      </c>
+      <c r="M4" s="110" t="s">
+        <v>959</v>
+      </c>
+      <c r="N4" s="108" t="s">
+        <v>960</v>
+      </c>
+      <c r="O4" s="108" t="s">
+        <v>957</v>
+      </c>
+      <c r="P4" s="108" t="s">
+        <v>961</v>
+      </c>
+      <c r="Q4" s="111" t="s">
+        <v>962</v>
+      </c>
+      <c r="R4" s="108" t="s">
+        <v>963</v>
+      </c>
+      <c r="S4" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="T4" s="108" t="s">
+        <v>964</v>
+      </c>
+      <c r="U4" s="108" t="s">
+        <v>965</v>
+      </c>
+      <c r="V4" s="108" t="s">
+        <v>966</v>
+      </c>
+      <c r="W4" s="108" t="s">
+        <v>967</v>
+      </c>
+      <c r="X4" s="108" t="s">
+        <v>968</v>
+      </c>
+      <c r="Y4" s="108" t="s">
+        <v>873</v>
+      </c>
+      <c r="Z4" s="108" t="s">
+        <v>969</v>
+      </c>
+      <c r="AA4" s="110" t="s">
+        <v>970</v>
+      </c>
+      <c r="AB4" s="110" t="s">
+        <v>971</v>
+      </c>
+      <c r="AC4" s="110">
+        <v>123456789</v>
+      </c>
+      <c r="AD4" s="110" t="s">
+        <v>972</v>
+      </c>
+      <c r="AE4" s="110" t="s">
+        <v>973</v>
+      </c>
+      <c r="AF4" s="108" t="s">
+        <v>974</v>
+      </c>
+      <c r="AG4" s="110" t="s">
+        <v>976</v>
+      </c>
+      <c r="AH4" s="110" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="107"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="107"/>
+      <c r="AF5" s="107"/>
+      <c r="AG5" s="107"/>
+      <c r="AH5" s="107"/>
+    </row>
+    <row r="6" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="107"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="107"/>
+      <c r="AB6" s="107"/>
+      <c r="AC6" s="107"/>
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="107"/>
+      <c r="AF6" s="107"/>
+      <c r="AG6" s="107"/>
+      <c r="AH6" s="107"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I860"/>
   <sheetViews>
@@ -8043,7 +8663,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -8072,7 +8692,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="99"/>
+      <c r="A3" s="100"/>
       <c r="B3" s="2" t="s">
         <v>89</v>
       </c>
@@ -8221,7 +8841,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="97" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -8235,7 +8855,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="97"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="2" t="s">
         <v>98</v>
       </c>
@@ -8244,7 +8864,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="99" t="s">
         <v>66</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -8255,7 +8875,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="2" t="s">
         <v>100</v>
       </c>
@@ -12587,11 +13207,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Requirements/Documents/Excel Sheets/Master Sheet for Batch.xlsx
+++ b/Requirements/Documents/Excel Sheets/Master Sheet for Batch.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rashmi kapoor\Desktop\NSKFDC APP\trunk\Requirements\Documents\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5000F589-1361-43BB-B131-F5743A8C7820}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{22F5853B-7B4D-49BD-A5E2-3DE4E4DCFFFE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="670" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="670" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Master Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
-    <sheet name="DropDown Values" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1 (2)" sheetId="5" r:id="rId5"/>
+    <sheet name="Master Sheet" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="DropDown Values" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1 (2)" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="Final Batch Sheet" sheetId="4" r:id="rId5"/>
+    <sheet name="Final Batch Sheet for app" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -115,262 +116,6 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>prateek kapoor</author>
-  </authors>
-  <commentList>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{F4C7C1C1-D91D-416F-B34F-EB785532DA05}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>prateek kapoor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Centre details
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{DB399AC7-2F03-4CFB-B6D4-84FDD211C769}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>prateek kapoor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-centre details
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{B2762D90-6BE2-4C81-8122-1622BE06A739}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>prateek kapoor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Candidate Details</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{F2686EC6-7C54-46F0-8D5B-B6C09DA76D89}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>prateek kapoor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Generated by System</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>prateek kapoor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-number of candidates assessed can be derived from here
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{53476ABB-1E1D-49C3-BAE7-2FFEAF8AD2FA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>prateek kapoor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Will be calculated by the system</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X26" authorId="0" shapeId="0" xr:uid="{25E2D42B-43A2-403E-AD19-98D60F700B93}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>prateek kapoor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-relation type in db</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB26" authorId="0" shapeId="0" xr:uid="{59D48215-187F-42BC-9BD8-7BBA635AF41A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>prateek kapoor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-complete address with block number and colony</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>prateek kapoor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-yes or no
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>prateek kapoor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-It is pass or not appear
-Payout will be given to candidates who are pass
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>prateek kapoor</author>
@@ -479,7 +224,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>prateek kapoor</author>
@@ -540,8 +285,117 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>prateek kapoor</author>
+  </authors>
+  <commentList>
+    <comment ref="U6" authorId="0" shapeId="0" xr:uid="{25E2D42B-43A2-403E-AD19-98D60F700B93}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>prateek kapoor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+relation type in db</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y6" authorId="0" shapeId="0" xr:uid="{59D48215-187F-42BC-9BD8-7BBA635AF41A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>prateek kapoor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+complete address with block number and colony</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>prateek kapoor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+yes or no
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>prateek kapoor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+It is pass or not appear
+Payout will be given to candidates who are pass
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="971">
   <si>
     <t>FirstNameCandidate</t>
   </si>
@@ -3279,24 +3133,6 @@
     <t>NSDC Registration Number</t>
   </si>
   <si>
-    <t>Centre ID</t>
-  </si>
-  <si>
-    <t>Batch Start Date</t>
-  </si>
-  <si>
-    <t>Batch End Date</t>
-  </si>
-  <si>
-    <t>Assessment Date</t>
-  </si>
-  <si>
-    <t>Date of Medical Examination</t>
-  </si>
-  <si>
-    <t>Date of Selection Committee</t>
-  </si>
-  <si>
     <t>Skill Council For Green Jobs</t>
   </si>
   <si>
@@ -3354,28 +3190,13 @@
     <t>Employment Type</t>
   </si>
   <si>
-    <t>To Be Updated by Training Partner Post assessment</t>
-  </si>
-  <si>
     <t>Batch Wise Data For NSKFDC Trainings</t>
   </si>
   <si>
     <t>Safai Karamchari</t>
   </si>
   <si>
-    <t>Batch Identity</t>
-  </si>
-  <si>
     <t>Kam Avida</t>
-  </si>
-  <si>
-    <t>"….." (Incremental Number)</t>
-  </si>
-  <si>
-    <t>Name of the Trainer</t>
-  </si>
-  <si>
-    <t>Number of Candidates in this Batch</t>
   </si>
   <si>
     <t>Candidates Information</t>
@@ -3478,20 +3299,23 @@
     <t>Employed/Contractual</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Batch ID</t>
   </si>
   <si>
     <t>Batch Details</t>
+  </si>
+  <si>
+    <t>B-1234</t>
+  </si>
+  <si>
+    <t>NSDC-4343</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3603,14 +3427,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -3624,7 +3440,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3681,12 +3497,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3703,14 +3513,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -3948,17 +3752,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -3973,13 +3766,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4043,58 +3862,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4103,47 +3895,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4156,7 +3920,50 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4175,38 +3982,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4215,6 +3995,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4227,36 +4010,72 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4574,6 +4393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BB61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4628,182 +4448,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78"/>
-      <c r="AW1" s="78"/>
-      <c r="AX1" s="78"/>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="78"/>
-      <c r="BA1" s="78"/>
-      <c r="BB1" s="78"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="74"/>
+      <c r="AP1" s="74"/>
+      <c r="AQ1" s="74"/>
+      <c r="AR1" s="74"/>
+      <c r="AS1" s="74"/>
+      <c r="AT1" s="74"/>
+      <c r="AU1" s="74"/>
+      <c r="AV1" s="74"/>
+      <c r="AW1" s="74"/>
+      <c r="AX1" s="74"/>
+      <c r="AY1" s="74"/>
+      <c r="AZ1" s="74"/>
+      <c r="BA1" s="74"/>
+      <c r="BB1" s="74"/>
     </row>
     <row r="2" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="78"/>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="78"/>
-      <c r="AO2" s="78"/>
-      <c r="AP2" s="78"/>
-      <c r="AQ2" s="78"/>
-      <c r="AR2" s="78"/>
-      <c r="AS2" s="78"/>
-      <c r="AT2" s="78"/>
-      <c r="AU2" s="78"/>
-      <c r="AV2" s="78"/>
-      <c r="AW2" s="78"/>
-      <c r="AX2" s="78"/>
-      <c r="AY2" s="78"/>
-      <c r="AZ2" s="78"/>
-      <c r="BA2" s="78"/>
-      <c r="BB2" s="78"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="74"/>
+      <c r="AO2" s="74"/>
+      <c r="AP2" s="74"/>
+      <c r="AQ2" s="74"/>
+      <c r="AR2" s="74"/>
+      <c r="AS2" s="74"/>
+      <c r="AT2" s="74"/>
+      <c r="AU2" s="74"/>
+      <c r="AV2" s="74"/>
+      <c r="AW2" s="74"/>
+      <c r="AX2" s="74"/>
+      <c r="AY2" s="74"/>
+      <c r="AZ2" s="74"/>
+      <c r="BA2" s="74"/>
+      <c r="BB2" s="74"/>
     </row>
     <row r="3" spans="1:54" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="76" t="s">
         <v>906</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="81" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="82" t="s">
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="AH3" s="82"/>
-      <c r="AI3" s="82"/>
-      <c r="AJ3" s="82"/>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="82"/>
-      <c r="AM3" s="82"/>
-      <c r="AN3" s="82"/>
-      <c r="AO3" s="82"/>
-      <c r="AP3" s="82"/>
-      <c r="AQ3" s="82"/>
-      <c r="AR3" s="82"/>
-      <c r="AS3" s="82"/>
-      <c r="AT3" s="82"/>
-      <c r="AU3" s="82"/>
-      <c r="AV3" s="82"/>
-      <c r="AW3" s="79" t="s">
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="78"/>
+      <c r="AO3" s="78"/>
+      <c r="AP3" s="78"/>
+      <c r="AQ3" s="78"/>
+      <c r="AR3" s="78"/>
+      <c r="AS3" s="78"/>
+      <c r="AT3" s="78"/>
+      <c r="AU3" s="78"/>
+      <c r="AV3" s="78"/>
+      <c r="AW3" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="AX3" s="79"/>
-      <c r="AY3" s="79"/>
-      <c r="AZ3" s="77" t="s">
+      <c r="AX3" s="75"/>
+      <c r="AY3" s="75"/>
+      <c r="AZ3" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="BA3" s="77"/>
-      <c r="BB3" s="77"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="73"/>
     </row>
     <row r="4" spans="1:54" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
@@ -7670,602 +7490,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AH29"/>
-  <sheetViews>
-    <sheetView topLeftCell="U17" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:AF29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" customWidth="1"/>
-    <col min="17" max="17" width="7.140625" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
-    <col min="19" max="19" width="18" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.85546875" customWidth="1"/>
-    <col min="26" max="26" width="12" customWidth="1"/>
-    <col min="27" max="27" width="17.140625" customWidth="1"/>
-    <col min="28" max="28" width="21.42578125" customWidth="1"/>
-    <col min="29" max="29" width="12.85546875" customWidth="1"/>
-    <col min="30" max="30" width="11.7109375" customWidth="1"/>
-    <col min="31" max="31" width="9.42578125" customWidth="1"/>
-    <col min="32" max="32" width="11.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
-        <v>938</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-    </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
-        <v>940</v>
-      </c>
-      <c r="B2" s="59" t="str">
-        <f>B5</f>
-        <v>Kam Avida</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>942</v>
-      </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-    </row>
-    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
-        <v>909</v>
-      </c>
-      <c r="B3" s="90" t="s">
-        <v>918</v>
-      </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
-        <v>910</v>
-      </c>
-      <c r="B4" s="92" t="s">
-        <v>939</v>
-      </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-    </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="92" t="s">
-        <v>941</v>
-      </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-    </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
-        <v>911</v>
-      </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-    </row>
-    <row r="7" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>912</v>
-      </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-    </row>
-    <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-    </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-    </row>
-    <row r="10" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-    </row>
-    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
-        <v>917</v>
-      </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-    </row>
-    <row r="12" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
-        <v>944</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
-        <v>943</v>
-      </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>913</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>914</v>
-      </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>915</v>
-      </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>916</v>
-      </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-    </row>
-    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>907</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>937</v>
-      </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-    </row>
-    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>935</v>
-      </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-    </row>
-    <row r="20" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
-        <v>934</v>
-      </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="AB21" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-    </row>
-    <row r="23" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-    </row>
-    <row r="24" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="85" t="s">
-        <v>945</v>
-      </c>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="94" t="s">
-        <v>948</v>
-      </c>
-      <c r="M24" s="95"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="85" t="s">
-        <v>949</v>
-      </c>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="85" t="s">
-        <v>949</v>
-      </c>
-      <c r="U24" s="86"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="85" t="s">
-        <v>949</v>
-      </c>
-      <c r="X24" s="86"/>
-      <c r="Y24" s="86"/>
-      <c r="Z24" s="85" t="s">
-        <v>949</v>
-      </c>
-      <c r="AA24" s="86"/>
-      <c r="AB24" s="86"/>
-      <c r="AC24" s="85" t="s">
-        <v>949</v>
-      </c>
-      <c r="AD24" s="86"/>
-      <c r="AE24" s="86"/>
-      <c r="AF24" s="76"/>
-      <c r="AG24" s="75"/>
-      <c r="AH24" s="75"/>
-    </row>
-    <row r="25" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="69" t="s">
-        <v>946</v>
-      </c>
-      <c r="G26" s="69" t="s">
-        <v>947</v>
-      </c>
-      <c r="H26" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="69" t="s">
-        <v>921</v>
-      </c>
-      <c r="J26" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="69" t="s">
-        <v>922</v>
-      </c>
-      <c r="M26" s="69" t="s">
-        <v>923</v>
-      </c>
-      <c r="N26" s="69" t="s">
-        <v>924</v>
-      </c>
-      <c r="O26" s="69" t="s">
-        <v>950</v>
-      </c>
-      <c r="P26" s="69" t="s">
-        <v>853</v>
-      </c>
-      <c r="Q26" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="R26" s="69" t="s">
-        <v>951</v>
-      </c>
-      <c r="S26" s="69" t="s">
-        <v>928</v>
-      </c>
-      <c r="T26" s="69" t="s">
-        <v>953</v>
-      </c>
-      <c r="U26" s="69" t="s">
-        <v>952</v>
-      </c>
-      <c r="V26" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="W26" s="70" t="s">
-        <v>954</v>
-      </c>
-      <c r="X26" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y26" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z26" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA26" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB26" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC26" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD26" s="70" t="s">
-        <v>930</v>
-      </c>
-      <c r="AE26" s="70" t="s">
-        <v>975</v>
-      </c>
-      <c r="AF26" s="71" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" ht="60" x14ac:dyDescent="0.25">
-      <c r="D27" s="74">
-        <v>1</v>
-      </c>
-      <c r="E27" s="51" t="s">
-        <v>956</v>
-      </c>
-      <c r="F27" s="51" t="s">
-        <v>955</v>
-      </c>
-      <c r="G27" s="51" t="s">
-        <v>957</v>
-      </c>
-      <c r="H27" s="51" t="s">
-        <v>958</v>
-      </c>
-      <c r="I27" s="51" t="s">
-        <v>884</v>
-      </c>
-      <c r="J27" s="72">
-        <v>32172</v>
-      </c>
-      <c r="K27" s="55" t="s">
-        <v>959</v>
-      </c>
-      <c r="L27" s="51" t="s">
-        <v>960</v>
-      </c>
-      <c r="M27" s="51" t="s">
-        <v>957</v>
-      </c>
-      <c r="N27" s="51" t="s">
-        <v>961</v>
-      </c>
-      <c r="O27" s="73" t="s">
-        <v>962</v>
-      </c>
-      <c r="P27" s="51" t="s">
-        <v>963</v>
-      </c>
-      <c r="Q27" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="R27" s="51" t="s">
-        <v>964</v>
-      </c>
-      <c r="S27" s="51" t="s">
-        <v>965</v>
-      </c>
-      <c r="T27" s="51" t="s">
-        <v>966</v>
-      </c>
-      <c r="U27" s="51" t="s">
-        <v>967</v>
-      </c>
-      <c r="V27" s="51" t="s">
-        <v>968</v>
-      </c>
-      <c r="W27" s="51" t="s">
-        <v>873</v>
-      </c>
-      <c r="X27" s="51" t="s">
-        <v>969</v>
-      </c>
-      <c r="Y27" s="55" t="s">
-        <v>970</v>
-      </c>
-      <c r="Z27" s="55" t="s">
-        <v>971</v>
-      </c>
-      <c r="AA27" s="55">
-        <v>123456789</v>
-      </c>
-      <c r="AB27" s="55" t="s">
-        <v>972</v>
-      </c>
-      <c r="AC27" s="55" t="s">
-        <v>973</v>
-      </c>
-      <c r="AD27" s="51" t="s">
-        <v>974</v>
-      </c>
-      <c r="AE27" s="55" t="s">
-        <v>976</v>
-      </c>
-      <c r="AF27" s="56" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="D28" s="30"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="31"/>
-    </row>
-    <row r="29" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="32"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="33"/>
-      <c r="AC29" s="33"/>
-      <c r="AD29" s="33"/>
-      <c r="AE29" s="33"/>
-      <c r="AF29" s="34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="Z24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:S24"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE5C98F-528E-4722-8922-B8ED1AD70BBF}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8276,327 +7506,327 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>980</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="85" t="s">
-        <v>945</v>
-      </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="94" t="s">
-        <v>948</v>
-      </c>
-      <c r="O1" s="95"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="85" t="s">
-        <v>949</v>
-      </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="85" t="s">
-        <v>949</v>
-      </c>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="85" t="s">
-        <v>949</v>
-      </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="85" t="s">
-        <v>949</v>
-      </c>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="85" t="s">
-        <v>949</v>
-      </c>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="76"/>
+      <c r="A1" s="81" t="s">
+        <v>968</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="79" t="s">
+        <v>934</v>
+      </c>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="81" t="s">
+        <v>937</v>
+      </c>
+      <c r="O1" s="82"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="79" t="s">
+        <v>938</v>
+      </c>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="79" t="s">
+        <v>938</v>
+      </c>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="79" t="s">
+        <v>938</v>
+      </c>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="79" t="s">
+        <v>938</v>
+      </c>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="79" t="s">
+        <v>938</v>
+      </c>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="57"/>
     </row>
     <row r="2" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:34" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="101" t="s">
-        <v>979</v>
-      </c>
-      <c r="B3" s="101" t="s">
+      <c r="A3" s="62" t="s">
+        <v>967</v>
+      </c>
+      <c r="B3" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="62" t="s">
         <v>909</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="62" t="s">
         <v>911</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="62" t="s">
         <v>910</v>
       </c>
-      <c r="F3" s="102" t="s">
+      <c r="F3" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="103" t="s">
+      <c r="G3" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="104" t="s">
+      <c r="H3" s="65" t="s">
+        <v>935</v>
+      </c>
+      <c r="I3" s="65" t="s">
+        <v>936</v>
+      </c>
+      <c r="J3" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="65" t="s">
+        <v>915</v>
+      </c>
+      <c r="L3" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="65" t="s">
+        <v>916</v>
+      </c>
+      <c r="O3" s="65" t="s">
+        <v>917</v>
+      </c>
+      <c r="P3" s="65" t="s">
+        <v>918</v>
+      </c>
+      <c r="Q3" s="65" t="s">
+        <v>939</v>
+      </c>
+      <c r="R3" s="65" t="s">
+        <v>853</v>
+      </c>
+      <c r="S3" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="65" t="s">
+        <v>940</v>
+      </c>
+      <c r="U3" s="65" t="s">
+        <v>922</v>
+      </c>
+      <c r="V3" s="65" t="s">
+        <v>942</v>
+      </c>
+      <c r="W3" s="65" t="s">
+        <v>941</v>
+      </c>
+      <c r="X3" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="66" t="s">
+        <v>943</v>
+      </c>
+      <c r="Z3" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB3" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC3" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD3" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE3" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF3" s="66" t="s">
+        <v>924</v>
+      </c>
+      <c r="AG3" s="66" t="s">
+        <v>964</v>
+      </c>
+      <c r="AH3" s="67" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="62">
+        <v>1</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>945</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>944</v>
+      </c>
+      <c r="I4" s="69" t="s">
         <v>946</v>
       </c>
-      <c r="I3" s="104" t="s">
+      <c r="J4" s="69" t="s">
         <v>947</v>
       </c>
-      <c r="J3" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="104" t="s">
-        <v>921</v>
-      </c>
-      <c r="L3" s="104" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="104" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="104" t="s">
-        <v>922</v>
-      </c>
-      <c r="O3" s="104" t="s">
-        <v>923</v>
-      </c>
-      <c r="P3" s="104" t="s">
-        <v>924</v>
-      </c>
-      <c r="Q3" s="104" t="s">
+      <c r="K4" s="69" t="s">
+        <v>884</v>
+      </c>
+      <c r="L4" s="70">
+        <v>32172</v>
+      </c>
+      <c r="M4" s="71" t="s">
+        <v>948</v>
+      </c>
+      <c r="N4" s="69" t="s">
+        <v>949</v>
+      </c>
+      <c r="O4" s="69" t="s">
+        <v>946</v>
+      </c>
+      <c r="P4" s="69" t="s">
         <v>950</v>
       </c>
-      <c r="R3" s="104" t="s">
-        <v>853</v>
-      </c>
-      <c r="S3" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" s="104" t="s">
+      <c r="Q4" s="72" t="s">
         <v>951</v>
       </c>
-      <c r="U3" s="104" t="s">
-        <v>928</v>
-      </c>
-      <c r="V3" s="104" t="s">
+      <c r="R4" s="69" t="s">
+        <v>952</v>
+      </c>
+      <c r="S4" s="69" t="s">
+        <v>260</v>
+      </c>
+      <c r="T4" s="69" t="s">
         <v>953</v>
       </c>
-      <c r="W3" s="104" t="s">
-        <v>952</v>
-      </c>
-      <c r="X3" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y3" s="105" t="s">
+      <c r="U4" s="69" t="s">
         <v>954</v>
       </c>
-      <c r="Z3" s="105" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA3" s="105" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB3" s="105" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC3" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD3" s="105" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE3" s="105" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF3" s="105" t="s">
-        <v>930</v>
-      </c>
-      <c r="AG3" s="105" t="s">
-        <v>975</v>
-      </c>
-      <c r="AH3" s="106" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="101">
-        <v>1</v>
-      </c>
-      <c r="G4" s="108" t="s">
+      <c r="V4" s="69" t="s">
+        <v>955</v>
+      </c>
+      <c r="W4" s="69" t="s">
         <v>956</v>
       </c>
-      <c r="H4" s="108" t="s">
-        <v>955</v>
-      </c>
-      <c r="I4" s="108" t="s">
+      <c r="X4" s="69" t="s">
         <v>957</v>
       </c>
-      <c r="J4" s="108" t="s">
+      <c r="Y4" s="69" t="s">
+        <v>873</v>
+      </c>
+      <c r="Z4" s="69" t="s">
         <v>958</v>
       </c>
-      <c r="K4" s="108" t="s">
-        <v>884</v>
-      </c>
-      <c r="L4" s="109">
-        <v>32172</v>
-      </c>
-      <c r="M4" s="110" t="s">
+      <c r="AA4" s="71" t="s">
         <v>959</v>
       </c>
-      <c r="N4" s="108" t="s">
+      <c r="AB4" s="71" t="s">
         <v>960</v>
       </c>
-      <c r="O4" s="108" t="s">
-        <v>957</v>
-      </c>
-      <c r="P4" s="108" t="s">
+      <c r="AC4" s="71">
+        <v>123456789</v>
+      </c>
+      <c r="AD4" s="71" t="s">
         <v>961</v>
       </c>
-      <c r="Q4" s="111" t="s">
+      <c r="AE4" s="71" t="s">
         <v>962</v>
       </c>
-      <c r="R4" s="108" t="s">
+      <c r="AF4" s="69" t="s">
         <v>963</v>
       </c>
-      <c r="S4" s="108" t="s">
-        <v>260</v>
-      </c>
-      <c r="T4" s="108" t="s">
-        <v>964</v>
-      </c>
-      <c r="U4" s="108" t="s">
+      <c r="AG4" s="71" t="s">
         <v>965</v>
       </c>
-      <c r="V4" s="108" t="s">
+      <c r="AH4" s="71" t="s">
         <v>966</v>
       </c>
-      <c r="W4" s="108" t="s">
-        <v>967</v>
-      </c>
-      <c r="X4" s="108" t="s">
-        <v>968</v>
-      </c>
-      <c r="Y4" s="108" t="s">
-        <v>873</v>
-      </c>
-      <c r="Z4" s="108" t="s">
-        <v>969</v>
-      </c>
-      <c r="AA4" s="110" t="s">
-        <v>970</v>
-      </c>
-      <c r="AB4" s="110" t="s">
-        <v>971</v>
-      </c>
-      <c r="AC4" s="110">
-        <v>123456789</v>
-      </c>
-      <c r="AD4" s="110" t="s">
-        <v>972</v>
-      </c>
-      <c r="AE4" s="110" t="s">
-        <v>973</v>
-      </c>
-      <c r="AF4" s="108" t="s">
-        <v>974</v>
-      </c>
-      <c r="AG4" s="110" t="s">
-        <v>976</v>
-      </c>
-      <c r="AH4" s="110" t="s">
-        <v>977</v>
-      </c>
     </row>
     <row r="5" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
-      <c r="AF5" s="107"/>
-      <c r="AG5" s="107"/>
-      <c r="AH5" s="107"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="68"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="68"/>
     </row>
     <row r="6" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="107"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107"/>
-      <c r="X6" s="107"/>
-      <c r="Y6" s="107"/>
-      <c r="Z6" s="107"/>
-      <c r="AA6" s="107"/>
-      <c r="AB6" s="107"/>
-      <c r="AC6" s="107"/>
-      <c r="AD6" s="107"/>
-      <c r="AE6" s="107"/>
-      <c r="AF6" s="107"/>
-      <c r="AG6" s="107"/>
-      <c r="AH6" s="107"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="68"/>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8614,8 +7844,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I860"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8663,7 +7894,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="85" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -8692,7 +7923,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="100"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="2" t="s">
         <v>89</v>
       </c>
@@ -8841,7 +8072,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="85" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -8855,7 +8086,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="98"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="2" t="s">
         <v>98</v>
       </c>
@@ -8864,7 +8095,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="87" t="s">
         <v>66</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -8875,7 +8106,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="2" t="s">
         <v>100</v>
       </c>
@@ -13207,8 +12438,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AH9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13252,22 +12484,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="43"/>
       <c r="E1" s="43"/>
       <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="43"/>
       <c r="E2" s="43"/>
       <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="43"/>
       <c r="E3" s="43"/>
       <c r="F3" s="43"/>
@@ -13281,16 +12513,16 @@
         <v>29</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="E6" s="37" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="G6" s="37" t="s">
         <v>32</v>
@@ -13299,28 +12531,28 @@
         <v>22</v>
       </c>
       <c r="I6" s="37" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="K6" s="37" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="L6" s="37" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="M6" s="37" t="s">
         <v>853</v>
       </c>
       <c r="N6" s="37" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="O6" s="37" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="P6" s="37" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="Q6" s="37" t="s">
         <v>37</v>
@@ -13350,31 +12582,31 @@
         <v>56</v>
       </c>
       <c r="Z6" s="38" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="AA6" s="38" t="s">
         <v>30</v>
       </c>
       <c r="AB6" s="38" t="s">
+        <v>924</v>
+      </c>
+      <c r="AC6" s="38" t="s">
+        <v>925</v>
+      </c>
+      <c r="AD6" s="38" t="s">
+        <v>926</v>
+      </c>
+      <c r="AE6" s="37" t="s">
+        <v>927</v>
+      </c>
+      <c r="AF6" s="39" t="s">
+        <v>929</v>
+      </c>
+      <c r="AG6" s="39" t="s">
+        <v>928</v>
+      </c>
+      <c r="AH6" s="40" t="s">
         <v>930</v>
-      </c>
-      <c r="AC6" s="38" t="s">
-        <v>931</v>
-      </c>
-      <c r="AD6" s="38" t="s">
-        <v>932</v>
-      </c>
-      <c r="AE6" s="37" t="s">
-        <v>933</v>
-      </c>
-      <c r="AF6" s="39" t="s">
-        <v>935</v>
-      </c>
-      <c r="AG6" s="39" t="s">
-        <v>934</v>
-      </c>
-      <c r="AH6" s="40" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -13490,4 +12722,2339 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AH9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.85546875" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="17.140625" customWidth="1"/>
+    <col min="28" max="28" width="21.42578125" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" customWidth="1"/>
+    <col min="30" max="30" width="11.7109375" customWidth="1"/>
+    <col min="31" max="31" width="9.42578125" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
+        <v>931</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="90"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>909</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>910</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>911</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>967</v>
+      </c>
+      <c r="F2" s="43"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
+        <v>912</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>932</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>933</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>970</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>969</v>
+      </c>
+      <c r="F3" s="43"/>
+    </row>
+    <row r="4" spans="1:34" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+    </row>
+    <row r="5" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="79" t="s">
+        <v>934</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="59" t="s">
+        <v>937</v>
+      </c>
+      <c r="J5" s="60"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="79" t="s">
+        <v>938</v>
+      </c>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="84"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+    </row>
+    <row r="6" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>935</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>936</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>915</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>916</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>917</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>918</v>
+      </c>
+      <c r="L6" s="50" t="s">
+        <v>939</v>
+      </c>
+      <c r="M6" s="50" t="s">
+        <v>853</v>
+      </c>
+      <c r="N6" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="50" t="s">
+        <v>940</v>
+      </c>
+      <c r="P6" s="50" t="s">
+        <v>922</v>
+      </c>
+      <c r="Q6" s="50" t="s">
+        <v>942</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>941</v>
+      </c>
+      <c r="S6" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="51" t="s">
+        <v>943</v>
+      </c>
+      <c r="U6" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="W6" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="X6" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z6" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA6" s="51" t="s">
+        <v>924</v>
+      </c>
+      <c r="AB6" s="51" t="s">
+        <v>964</v>
+      </c>
+      <c r="AC6" s="52" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="55">
+        <v>1</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>945</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>944</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>946</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>947</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>884</v>
+      </c>
+      <c r="G7" s="53">
+        <v>32172</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>949</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>946</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>950</v>
+      </c>
+      <c r="L7" s="54" t="s">
+        <v>951</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>952</v>
+      </c>
+      <c r="N7" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="O7" s="45" t="s">
+        <v>953</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>954</v>
+      </c>
+      <c r="Q7" s="45" t="s">
+        <v>955</v>
+      </c>
+      <c r="R7" s="45" t="s">
+        <v>956</v>
+      </c>
+      <c r="S7" s="45" t="s">
+        <v>957</v>
+      </c>
+      <c r="T7" s="45" t="s">
+        <v>873</v>
+      </c>
+      <c r="U7" s="45" t="s">
+        <v>958</v>
+      </c>
+      <c r="V7" s="46" t="s">
+        <v>959</v>
+      </c>
+      <c r="W7" s="46" t="s">
+        <v>960</v>
+      </c>
+      <c r="X7" s="46">
+        <v>123456789</v>
+      </c>
+      <c r="Y7" s="46" t="s">
+        <v>961</v>
+      </c>
+      <c r="Z7" s="46" t="s">
+        <v>962</v>
+      </c>
+      <c r="AA7" s="45" t="s">
+        <v>963</v>
+      </c>
+      <c r="AB7" s="46" t="s">
+        <v>965</v>
+      </c>
+      <c r="AC7" s="47" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="31"/>
+    </row>
+    <row r="9" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="L5:AC5"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306C4471-C85E-4337-A2F0-F889F0FDE365}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:AH56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56:AC56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.85546875" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="17.140625" customWidth="1"/>
+    <col min="28" max="28" width="21.42578125" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" customWidth="1"/>
+    <col min="30" max="30" width="11.7109375" customWidth="1"/>
+    <col min="31" max="31" width="9.42578125" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="93" t="s">
+        <v>931</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="90"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
+        <v>909</v>
+      </c>
+      <c r="B2" s="96" t="s">
+        <v>910</v>
+      </c>
+      <c r="C2" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="96" t="s">
+        <v>911</v>
+      </c>
+      <c r="E2" s="96" t="s">
+        <v>967</v>
+      </c>
+      <c r="F2" s="43"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
+        <v>912</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>932</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>933</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>970</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>969</v>
+      </c>
+      <c r="F3" s="43"/>
+    </row>
+    <row r="4" spans="1:34" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+    </row>
+    <row r="5" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="79" t="s">
+        <v>934</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="59" t="s">
+        <v>937</v>
+      </c>
+      <c r="J5" s="60"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="79" t="s">
+        <v>938</v>
+      </c>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="84"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+    </row>
+    <row r="6" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>935</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>936</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>915</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>916</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>917</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>918</v>
+      </c>
+      <c r="L6" s="50" t="s">
+        <v>939</v>
+      </c>
+      <c r="M6" s="50" t="s">
+        <v>853</v>
+      </c>
+      <c r="N6" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="50" t="s">
+        <v>940</v>
+      </c>
+      <c r="P6" s="50" t="s">
+        <v>922</v>
+      </c>
+      <c r="Q6" s="50" t="s">
+        <v>942</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>941</v>
+      </c>
+      <c r="S6" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="51" t="s">
+        <v>943</v>
+      </c>
+      <c r="U6" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="W6" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="X6" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z6" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA6" s="51" t="s">
+        <v>924</v>
+      </c>
+      <c r="AB6" s="51" t="s">
+        <v>964</v>
+      </c>
+      <c r="AC6" s="52" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="98">
+        <v>1</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>945</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>944</v>
+      </c>
+      <c r="D7" s="99" t="s">
+        <v>946</v>
+      </c>
+      <c r="E7" s="99" t="s">
+        <v>947</v>
+      </c>
+      <c r="F7" s="99" t="s">
+        <v>884</v>
+      </c>
+      <c r="G7" s="100">
+        <v>32172</v>
+      </c>
+      <c r="H7" s="101" t="s">
+        <v>948</v>
+      </c>
+      <c r="I7" s="99" t="s">
+        <v>949</v>
+      </c>
+      <c r="J7" s="99" t="s">
+        <v>946</v>
+      </c>
+      <c r="K7" s="99" t="s">
+        <v>950</v>
+      </c>
+      <c r="L7" s="102" t="s">
+        <v>951</v>
+      </c>
+      <c r="M7" s="99" t="s">
+        <v>952</v>
+      </c>
+      <c r="N7" s="99" t="s">
+        <v>260</v>
+      </c>
+      <c r="O7" s="99" t="s">
+        <v>953</v>
+      </c>
+      <c r="P7" s="99" t="s">
+        <v>954</v>
+      </c>
+      <c r="Q7" s="99" t="s">
+        <v>955</v>
+      </c>
+      <c r="R7" s="99" t="s">
+        <v>956</v>
+      </c>
+      <c r="S7" s="99" t="s">
+        <v>957</v>
+      </c>
+      <c r="T7" s="99" t="s">
+        <v>873</v>
+      </c>
+      <c r="U7" s="99" t="s">
+        <v>958</v>
+      </c>
+      <c r="V7" s="101" t="s">
+        <v>959</v>
+      </c>
+      <c r="W7" s="101" t="s">
+        <v>960</v>
+      </c>
+      <c r="X7" s="101">
+        <v>123456789</v>
+      </c>
+      <c r="Y7" s="101" t="s">
+        <v>961</v>
+      </c>
+      <c r="Z7" s="101" t="s">
+        <v>962</v>
+      </c>
+      <c r="AA7" s="99" t="s">
+        <v>963</v>
+      </c>
+      <c r="AB7" s="101" t="s">
+        <v>965</v>
+      </c>
+      <c r="AC7" s="103" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="98">
+        <v>2</v>
+      </c>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="99"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="99"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="103"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="98">
+        <v>3</v>
+      </c>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="101"/>
+      <c r="X9" s="101"/>
+      <c r="Y9" s="101"/>
+      <c r="Z9" s="101"/>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="101"/>
+      <c r="AC9" s="103"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="98">
+        <v>4</v>
+      </c>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="99"/>
+      <c r="U10" s="99"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="101"/>
+      <c r="X10" s="101"/>
+      <c r="Y10" s="101"/>
+      <c r="Z10" s="101"/>
+      <c r="AA10" s="99"/>
+      <c r="AB10" s="101"/>
+      <c r="AC10" s="103"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="98">
+        <v>5</v>
+      </c>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="99"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="101"/>
+      <c r="X11" s="101"/>
+      <c r="Y11" s="101"/>
+      <c r="Z11" s="101"/>
+      <c r="AA11" s="99"/>
+      <c r="AB11" s="101"/>
+      <c r="AC11" s="103"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="98">
+        <v>6</v>
+      </c>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="99"/>
+      <c r="U12" s="99"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="101"/>
+      <c r="Z12" s="101"/>
+      <c r="AA12" s="99"/>
+      <c r="AB12" s="101"/>
+      <c r="AC12" s="103"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="98">
+        <v>7</v>
+      </c>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="101"/>
+      <c r="Y13" s="101"/>
+      <c r="Z13" s="101"/>
+      <c r="AA13" s="99"/>
+      <c r="AB13" s="101"/>
+      <c r="AC13" s="103"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="98">
+        <v>8</v>
+      </c>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="99"/>
+      <c r="U14" s="99"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="101"/>
+      <c r="Z14" s="101"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="101"/>
+      <c r="AC14" s="103"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="98">
+        <v>9</v>
+      </c>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="99"/>
+      <c r="T15" s="99"/>
+      <c r="U15" s="99"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="101"/>
+      <c r="X15" s="101"/>
+      <c r="Y15" s="101"/>
+      <c r="Z15" s="101"/>
+      <c r="AA15" s="99"/>
+      <c r="AB15" s="101"/>
+      <c r="AC15" s="103"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="98">
+        <v>10</v>
+      </c>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="99"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="101"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="101"/>
+      <c r="Z16" s="101"/>
+      <c r="AA16" s="99"/>
+      <c r="AB16" s="101"/>
+      <c r="AC16" s="103"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" s="98">
+        <v>11</v>
+      </c>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="99"/>
+      <c r="T17" s="99"/>
+      <c r="U17" s="99"/>
+      <c r="V17" s="101"/>
+      <c r="W17" s="101"/>
+      <c r="X17" s="101"/>
+      <c r="Y17" s="101"/>
+      <c r="Z17" s="101"/>
+      <c r="AA17" s="99"/>
+      <c r="AB17" s="101"/>
+      <c r="AC17" s="103"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" s="98">
+        <v>12</v>
+      </c>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="99"/>
+      <c r="V18" s="101"/>
+      <c r="W18" s="101"/>
+      <c r="X18" s="101"/>
+      <c r="Y18" s="101"/>
+      <c r="Z18" s="101"/>
+      <c r="AA18" s="99"/>
+      <c r="AB18" s="101"/>
+      <c r="AC18" s="103"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="98">
+        <v>13</v>
+      </c>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="99"/>
+      <c r="V19" s="101"/>
+      <c r="W19" s="101"/>
+      <c r="X19" s="101"/>
+      <c r="Y19" s="101"/>
+      <c r="Z19" s="101"/>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="101"/>
+      <c r="AC19" s="103"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="98">
+        <v>14</v>
+      </c>
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="99"/>
+      <c r="U20" s="99"/>
+      <c r="V20" s="101"/>
+      <c r="W20" s="101"/>
+      <c r="X20" s="101"/>
+      <c r="Y20" s="101"/>
+      <c r="Z20" s="101"/>
+      <c r="AA20" s="99"/>
+      <c r="AB20" s="101"/>
+      <c r="AC20" s="103"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" s="98">
+        <v>15</v>
+      </c>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="99"/>
+      <c r="V21" s="101"/>
+      <c r="W21" s="101"/>
+      <c r="X21" s="101"/>
+      <c r="Y21" s="101"/>
+      <c r="Z21" s="101"/>
+      <c r="AA21" s="99"/>
+      <c r="AB21" s="101"/>
+      <c r="AC21" s="103"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" s="98">
+        <v>16</v>
+      </c>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="99"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="99"/>
+      <c r="V22" s="101"/>
+      <c r="W22" s="101"/>
+      <c r="X22" s="101"/>
+      <c r="Y22" s="101"/>
+      <c r="Z22" s="101"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="101"/>
+      <c r="AC22" s="103"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="98">
+        <v>17</v>
+      </c>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="99"/>
+      <c r="T23" s="99"/>
+      <c r="U23" s="99"/>
+      <c r="V23" s="101"/>
+      <c r="W23" s="101"/>
+      <c r="X23" s="101"/>
+      <c r="Y23" s="101"/>
+      <c r="Z23" s="101"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="101"/>
+      <c r="AC23" s="103"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="98">
+        <v>18</v>
+      </c>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="99"/>
+      <c r="U24" s="99"/>
+      <c r="V24" s="101"/>
+      <c r="W24" s="101"/>
+      <c r="X24" s="101"/>
+      <c r="Y24" s="101"/>
+      <c r="Z24" s="101"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="101"/>
+      <c r="AC24" s="103"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="98">
+        <v>19</v>
+      </c>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="99"/>
+      <c r="V25" s="101"/>
+      <c r="W25" s="101"/>
+      <c r="X25" s="101"/>
+      <c r="Y25" s="101"/>
+      <c r="Z25" s="101"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="101"/>
+      <c r="AC25" s="103"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="98">
+        <v>20</v>
+      </c>
+      <c r="B26" s="99"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="99"/>
+      <c r="V26" s="101"/>
+      <c r="W26" s="101"/>
+      <c r="X26" s="101"/>
+      <c r="Y26" s="101"/>
+      <c r="Z26" s="101"/>
+      <c r="AA26" s="99"/>
+      <c r="AB26" s="101"/>
+      <c r="AC26" s="103"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" s="98">
+        <v>21</v>
+      </c>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" s="99"/>
+      <c r="S27" s="99"/>
+      <c r="T27" s="99"/>
+      <c r="U27" s="99"/>
+      <c r="V27" s="101"/>
+      <c r="W27" s="101"/>
+      <c r="X27" s="101"/>
+      <c r="Y27" s="101"/>
+      <c r="Z27" s="101"/>
+      <c r="AA27" s="99"/>
+      <c r="AB27" s="101"/>
+      <c r="AC27" s="103"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" s="98">
+        <v>22</v>
+      </c>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="99"/>
+      <c r="R28" s="99"/>
+      <c r="S28" s="99"/>
+      <c r="T28" s="99"/>
+      <c r="U28" s="99"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="101"/>
+      <c r="X28" s="101"/>
+      <c r="Y28" s="101"/>
+      <c r="Z28" s="101"/>
+      <c r="AA28" s="99"/>
+      <c r="AB28" s="101"/>
+      <c r="AC28" s="103"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" s="98">
+        <v>23</v>
+      </c>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="99"/>
+      <c r="S29" s="99"/>
+      <c r="T29" s="99"/>
+      <c r="U29" s="99"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="101"/>
+      <c r="X29" s="101"/>
+      <c r="Y29" s="101"/>
+      <c r="Z29" s="101"/>
+      <c r="AA29" s="99"/>
+      <c r="AB29" s="101"/>
+      <c r="AC29" s="103"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="98">
+        <v>24</v>
+      </c>
+      <c r="B30" s="99"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="99"/>
+      <c r="S30" s="99"/>
+      <c r="T30" s="99"/>
+      <c r="U30" s="99"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="101"/>
+      <c r="X30" s="101"/>
+      <c r="Y30" s="101"/>
+      <c r="Z30" s="101"/>
+      <c r="AA30" s="99"/>
+      <c r="AB30" s="101"/>
+      <c r="AC30" s="103"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="98">
+        <v>25</v>
+      </c>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="99"/>
+      <c r="R31" s="99"/>
+      <c r="S31" s="99"/>
+      <c r="T31" s="99"/>
+      <c r="U31" s="99"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="101"/>
+      <c r="X31" s="101"/>
+      <c r="Y31" s="101"/>
+      <c r="Z31" s="101"/>
+      <c r="AA31" s="99"/>
+      <c r="AB31" s="101"/>
+      <c r="AC31" s="103"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="98">
+        <v>26</v>
+      </c>
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" s="99"/>
+      <c r="S32" s="99"/>
+      <c r="T32" s="99"/>
+      <c r="U32" s="99"/>
+      <c r="V32" s="101"/>
+      <c r="W32" s="101"/>
+      <c r="X32" s="101"/>
+      <c r="Y32" s="101"/>
+      <c r="Z32" s="101"/>
+      <c r="AA32" s="99"/>
+      <c r="AB32" s="101"/>
+      <c r="AC32" s="103"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="98">
+        <v>27</v>
+      </c>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="99"/>
+      <c r="R33" s="99"/>
+      <c r="S33" s="99"/>
+      <c r="T33" s="99"/>
+      <c r="U33" s="99"/>
+      <c r="V33" s="101"/>
+      <c r="W33" s="101"/>
+      <c r="X33" s="101"/>
+      <c r="Y33" s="101"/>
+      <c r="Z33" s="101"/>
+      <c r="AA33" s="99"/>
+      <c r="AB33" s="101"/>
+      <c r="AC33" s="103"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="98">
+        <v>28</v>
+      </c>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="99"/>
+      <c r="S34" s="99"/>
+      <c r="T34" s="99"/>
+      <c r="U34" s="99"/>
+      <c r="V34" s="101"/>
+      <c r="W34" s="101"/>
+      <c r="X34" s="101"/>
+      <c r="Y34" s="101"/>
+      <c r="Z34" s="101"/>
+      <c r="AA34" s="99"/>
+      <c r="AB34" s="101"/>
+      <c r="AC34" s="103"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="98">
+        <v>29</v>
+      </c>
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="102"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="99"/>
+      <c r="S35" s="99"/>
+      <c r="T35" s="99"/>
+      <c r="U35" s="99"/>
+      <c r="V35" s="101"/>
+      <c r="W35" s="101"/>
+      <c r="X35" s="101"/>
+      <c r="Y35" s="101"/>
+      <c r="Z35" s="101"/>
+      <c r="AA35" s="99"/>
+      <c r="AB35" s="101"/>
+      <c r="AC35" s="103"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="98">
+        <v>30</v>
+      </c>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="99"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="99"/>
+      <c r="Q36" s="99"/>
+      <c r="R36" s="99"/>
+      <c r="S36" s="99"/>
+      <c r="T36" s="99"/>
+      <c r="U36" s="99"/>
+      <c r="V36" s="101"/>
+      <c r="W36" s="101"/>
+      <c r="X36" s="101"/>
+      <c r="Y36" s="101"/>
+      <c r="Z36" s="101"/>
+      <c r="AA36" s="99"/>
+      <c r="AB36" s="101"/>
+      <c r="AC36" s="103"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="98">
+        <v>31</v>
+      </c>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="99"/>
+      <c r="N37" s="99"/>
+      <c r="O37" s="99"/>
+      <c r="P37" s="99"/>
+      <c r="Q37" s="99"/>
+      <c r="R37" s="99"/>
+      <c r="S37" s="99"/>
+      <c r="T37" s="99"/>
+      <c r="U37" s="99"/>
+      <c r="V37" s="101"/>
+      <c r="W37" s="101"/>
+      <c r="X37" s="101"/>
+      <c r="Y37" s="101"/>
+      <c r="Z37" s="101"/>
+      <c r="AA37" s="99"/>
+      <c r="AB37" s="101"/>
+      <c r="AC37" s="103"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" s="98">
+        <v>32</v>
+      </c>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="102"/>
+      <c r="M38" s="99"/>
+      <c r="N38" s="99"/>
+      <c r="O38" s="99"/>
+      <c r="P38" s="99"/>
+      <c r="Q38" s="99"/>
+      <c r="R38" s="99"/>
+      <c r="S38" s="99"/>
+      <c r="T38" s="99"/>
+      <c r="U38" s="99"/>
+      <c r="V38" s="101"/>
+      <c r="W38" s="101"/>
+      <c r="X38" s="101"/>
+      <c r="Y38" s="101"/>
+      <c r="Z38" s="101"/>
+      <c r="AA38" s="99"/>
+      <c r="AB38" s="101"/>
+      <c r="AC38" s="103"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="98">
+        <v>33</v>
+      </c>
+      <c r="B39" s="99"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="102"/>
+      <c r="M39" s="99"/>
+      <c r="N39" s="99"/>
+      <c r="O39" s="99"/>
+      <c r="P39" s="99"/>
+      <c r="Q39" s="99"/>
+      <c r="R39" s="99"/>
+      <c r="S39" s="99"/>
+      <c r="T39" s="99"/>
+      <c r="U39" s="99"/>
+      <c r="V39" s="101"/>
+      <c r="W39" s="101"/>
+      <c r="X39" s="101"/>
+      <c r="Y39" s="101"/>
+      <c r="Z39" s="101"/>
+      <c r="AA39" s="99"/>
+      <c r="AB39" s="101"/>
+      <c r="AC39" s="103"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="98">
+        <v>34</v>
+      </c>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="102"/>
+      <c r="M40" s="99"/>
+      <c r="N40" s="99"/>
+      <c r="O40" s="99"/>
+      <c r="P40" s="99"/>
+      <c r="Q40" s="99"/>
+      <c r="R40" s="99"/>
+      <c r="S40" s="99"/>
+      <c r="T40" s="99"/>
+      <c r="U40" s="99"/>
+      <c r="V40" s="101"/>
+      <c r="W40" s="101"/>
+      <c r="X40" s="101"/>
+      <c r="Y40" s="101"/>
+      <c r="Z40" s="101"/>
+      <c r="AA40" s="99"/>
+      <c r="AB40" s="101"/>
+      <c r="AC40" s="103"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" s="98">
+        <v>35</v>
+      </c>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="102"/>
+      <c r="M41" s="99"/>
+      <c r="N41" s="99"/>
+      <c r="O41" s="99"/>
+      <c r="P41" s="99"/>
+      <c r="Q41" s="99"/>
+      <c r="R41" s="99"/>
+      <c r="S41" s="99"/>
+      <c r="T41" s="99"/>
+      <c r="U41" s="99"/>
+      <c r="V41" s="101"/>
+      <c r="W41" s="101"/>
+      <c r="X41" s="101"/>
+      <c r="Y41" s="101"/>
+      <c r="Z41" s="101"/>
+      <c r="AA41" s="99"/>
+      <c r="AB41" s="101"/>
+      <c r="AC41" s="103"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42" s="98">
+        <v>36</v>
+      </c>
+      <c r="B42" s="99"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="102"/>
+      <c r="M42" s="99"/>
+      <c r="N42" s="99"/>
+      <c r="O42" s="99"/>
+      <c r="P42" s="99"/>
+      <c r="Q42" s="99"/>
+      <c r="R42" s="99"/>
+      <c r="S42" s="99"/>
+      <c r="T42" s="99"/>
+      <c r="U42" s="99"/>
+      <c r="V42" s="101"/>
+      <c r="W42" s="101"/>
+      <c r="X42" s="101"/>
+      <c r="Y42" s="101"/>
+      <c r="Z42" s="101"/>
+      <c r="AA42" s="99"/>
+      <c r="AB42" s="101"/>
+      <c r="AC42" s="103"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43" s="98">
+        <v>37</v>
+      </c>
+      <c r="B43" s="99"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="102"/>
+      <c r="M43" s="99"/>
+      <c r="N43" s="99"/>
+      <c r="O43" s="99"/>
+      <c r="P43" s="99"/>
+      <c r="Q43" s="99"/>
+      <c r="R43" s="99"/>
+      <c r="S43" s="99"/>
+      <c r="T43" s="99"/>
+      <c r="U43" s="99"/>
+      <c r="V43" s="101"/>
+      <c r="W43" s="101"/>
+      <c r="X43" s="101"/>
+      <c r="Y43" s="101"/>
+      <c r="Z43" s="101"/>
+      <c r="AA43" s="99"/>
+      <c r="AB43" s="101"/>
+      <c r="AC43" s="103"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A44" s="98">
+        <v>38</v>
+      </c>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="102"/>
+      <c r="M44" s="99"/>
+      <c r="N44" s="99"/>
+      <c r="O44" s="99"/>
+      <c r="P44" s="99"/>
+      <c r="Q44" s="99"/>
+      <c r="R44" s="99"/>
+      <c r="S44" s="99"/>
+      <c r="T44" s="99"/>
+      <c r="U44" s="99"/>
+      <c r="V44" s="101"/>
+      <c r="W44" s="101"/>
+      <c r="X44" s="101"/>
+      <c r="Y44" s="101"/>
+      <c r="Z44" s="101"/>
+      <c r="AA44" s="99"/>
+      <c r="AB44" s="101"/>
+      <c r="AC44" s="103"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A45" s="98">
+        <v>39</v>
+      </c>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="102"/>
+      <c r="M45" s="99"/>
+      <c r="N45" s="99"/>
+      <c r="O45" s="99"/>
+      <c r="P45" s="99"/>
+      <c r="Q45" s="99"/>
+      <c r="R45" s="99"/>
+      <c r="S45" s="99"/>
+      <c r="T45" s="99"/>
+      <c r="U45" s="99"/>
+      <c r="V45" s="101"/>
+      <c r="W45" s="101"/>
+      <c r="X45" s="101"/>
+      <c r="Y45" s="101"/>
+      <c r="Z45" s="101"/>
+      <c r="AA45" s="99"/>
+      <c r="AB45" s="101"/>
+      <c r="AC45" s="103"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46" s="98">
+        <v>40</v>
+      </c>
+      <c r="B46" s="99"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="99"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="102"/>
+      <c r="M46" s="99"/>
+      <c r="N46" s="99"/>
+      <c r="O46" s="99"/>
+      <c r="P46" s="99"/>
+      <c r="Q46" s="99"/>
+      <c r="R46" s="99"/>
+      <c r="S46" s="99"/>
+      <c r="T46" s="99"/>
+      <c r="U46" s="99"/>
+      <c r="V46" s="101"/>
+      <c r="W46" s="101"/>
+      <c r="X46" s="101"/>
+      <c r="Y46" s="101"/>
+      <c r="Z46" s="101"/>
+      <c r="AA46" s="99"/>
+      <c r="AB46" s="101"/>
+      <c r="AC46" s="103"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A47" s="98">
+        <v>41</v>
+      </c>
+      <c r="B47" s="99"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="99"/>
+      <c r="L47" s="102"/>
+      <c r="M47" s="99"/>
+      <c r="N47" s="99"/>
+      <c r="O47" s="99"/>
+      <c r="P47" s="99"/>
+      <c r="Q47" s="99"/>
+      <c r="R47" s="99"/>
+      <c r="S47" s="99"/>
+      <c r="T47" s="99"/>
+      <c r="U47" s="99"/>
+      <c r="V47" s="101"/>
+      <c r="W47" s="101"/>
+      <c r="X47" s="101"/>
+      <c r="Y47" s="101"/>
+      <c r="Z47" s="101"/>
+      <c r="AA47" s="99"/>
+      <c r="AB47" s="101"/>
+      <c r="AC47" s="103"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A48" s="98">
+        <v>42</v>
+      </c>
+      <c r="B48" s="99"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="102"/>
+      <c r="M48" s="99"/>
+      <c r="N48" s="99"/>
+      <c r="O48" s="99"/>
+      <c r="P48" s="99"/>
+      <c r="Q48" s="99"/>
+      <c r="R48" s="99"/>
+      <c r="S48" s="99"/>
+      <c r="T48" s="99"/>
+      <c r="U48" s="99"/>
+      <c r="V48" s="101"/>
+      <c r="W48" s="101"/>
+      <c r="X48" s="101"/>
+      <c r="Y48" s="101"/>
+      <c r="Z48" s="101"/>
+      <c r="AA48" s="99"/>
+      <c r="AB48" s="101"/>
+      <c r="AC48" s="103"/>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A49" s="98">
+        <v>43</v>
+      </c>
+      <c r="B49" s="99"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="100"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="99"/>
+      <c r="K49" s="99"/>
+      <c r="L49" s="102"/>
+      <c r="M49" s="99"/>
+      <c r="N49" s="99"/>
+      <c r="O49" s="99"/>
+      <c r="P49" s="99"/>
+      <c r="Q49" s="99"/>
+      <c r="R49" s="99"/>
+      <c r="S49" s="99"/>
+      <c r="T49" s="99"/>
+      <c r="U49" s="99"/>
+      <c r="V49" s="101"/>
+      <c r="W49" s="101"/>
+      <c r="X49" s="101"/>
+      <c r="Y49" s="101"/>
+      <c r="Z49" s="101"/>
+      <c r="AA49" s="99"/>
+      <c r="AB49" s="101"/>
+      <c r="AC49" s="103"/>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A50" s="98">
+        <v>44</v>
+      </c>
+      <c r="B50" s="104"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="104"/>
+      <c r="F50" s="104"/>
+      <c r="G50" s="104"/>
+      <c r="H50" s="104"/>
+      <c r="I50" s="104"/>
+      <c r="J50" s="104"/>
+      <c r="K50" s="104"/>
+      <c r="L50" s="104"/>
+      <c r="M50" s="104"/>
+      <c r="N50" s="104"/>
+      <c r="O50" s="104"/>
+      <c r="P50" s="104"/>
+      <c r="Q50" s="104"/>
+      <c r="R50" s="104"/>
+      <c r="S50" s="104"/>
+      <c r="T50" s="104"/>
+      <c r="U50" s="104"/>
+      <c r="V50" s="104"/>
+      <c r="W50" s="104"/>
+      <c r="X50" s="104"/>
+      <c r="Y50" s="104"/>
+      <c r="Z50" s="104"/>
+      <c r="AA50" s="104"/>
+      <c r="AB50" s="104"/>
+      <c r="AC50" s="105"/>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A51" s="98">
+        <v>45</v>
+      </c>
+      <c r="B51" s="106"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="106"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="106"/>
+      <c r="K51" s="106"/>
+      <c r="L51" s="106"/>
+      <c r="M51" s="106"/>
+      <c r="N51" s="106"/>
+      <c r="O51" s="106"/>
+      <c r="P51" s="106"/>
+      <c r="Q51" s="106"/>
+      <c r="R51" s="106"/>
+      <c r="S51" s="106"/>
+      <c r="T51" s="106"/>
+      <c r="U51" s="106"/>
+      <c r="V51" s="106"/>
+      <c r="W51" s="106"/>
+      <c r="X51" s="106"/>
+      <c r="Y51" s="106"/>
+      <c r="Z51" s="106"/>
+      <c r="AA51" s="106"/>
+      <c r="AB51" s="106"/>
+      <c r="AC51" s="107"/>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52" s="98">
+        <v>46</v>
+      </c>
+      <c r="B52" s="106"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="106"/>
+      <c r="F52" s="106"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="106"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="106"/>
+      <c r="K52" s="106"/>
+      <c r="L52" s="106"/>
+      <c r="M52" s="106"/>
+      <c r="N52" s="106"/>
+      <c r="O52" s="106"/>
+      <c r="P52" s="106"/>
+      <c r="Q52" s="106"/>
+      <c r="R52" s="106"/>
+      <c r="S52" s="106"/>
+      <c r="T52" s="106"/>
+      <c r="U52" s="106"/>
+      <c r="V52" s="106"/>
+      <c r="W52" s="106"/>
+      <c r="X52" s="106"/>
+      <c r="Y52" s="106"/>
+      <c r="Z52" s="106"/>
+      <c r="AA52" s="106"/>
+      <c r="AB52" s="106"/>
+      <c r="AC52" s="107"/>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A53" s="98">
+        <v>47</v>
+      </c>
+      <c r="B53" s="106"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="106"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="106"/>
+      <c r="K53" s="106"/>
+      <c r="L53" s="106"/>
+      <c r="M53" s="106"/>
+      <c r="N53" s="106"/>
+      <c r="O53" s="106"/>
+      <c r="P53" s="106"/>
+      <c r="Q53" s="106"/>
+      <c r="R53" s="106"/>
+      <c r="S53" s="106"/>
+      <c r="T53" s="106"/>
+      <c r="U53" s="106"/>
+      <c r="V53" s="106"/>
+      <c r="W53" s="106"/>
+      <c r="X53" s="106"/>
+      <c r="Y53" s="106"/>
+      <c r="Z53" s="106"/>
+      <c r="AA53" s="106"/>
+      <c r="AB53" s="106"/>
+      <c r="AC53" s="107"/>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54" s="98">
+        <v>48</v>
+      </c>
+      <c r="B54" s="106"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="106"/>
+      <c r="F54" s="106"/>
+      <c r="G54" s="106"/>
+      <c r="H54" s="106"/>
+      <c r="I54" s="106"/>
+      <c r="J54" s="106"/>
+      <c r="K54" s="106"/>
+      <c r="L54" s="106"/>
+      <c r="M54" s="106"/>
+      <c r="N54" s="106"/>
+      <c r="O54" s="106"/>
+      <c r="P54" s="106"/>
+      <c r="Q54" s="106"/>
+      <c r="R54" s="106"/>
+      <c r="S54" s="106"/>
+      <c r="T54" s="106"/>
+      <c r="U54" s="106"/>
+      <c r="V54" s="106"/>
+      <c r="W54" s="106"/>
+      <c r="X54" s="106"/>
+      <c r="Y54" s="106"/>
+      <c r="Z54" s="106"/>
+      <c r="AA54" s="106"/>
+      <c r="AB54" s="106"/>
+      <c r="AC54" s="107"/>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55" s="98">
+        <v>49</v>
+      </c>
+      <c r="B55" s="106"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="106"/>
+      <c r="K55" s="106"/>
+      <c r="L55" s="106"/>
+      <c r="M55" s="106"/>
+      <c r="N55" s="106"/>
+      <c r="O55" s="106"/>
+      <c r="P55" s="106"/>
+      <c r="Q55" s="106"/>
+      <c r="R55" s="106"/>
+      <c r="S55" s="106"/>
+      <c r="T55" s="106"/>
+      <c r="U55" s="106"/>
+      <c r="V55" s="106"/>
+      <c r="W55" s="106"/>
+      <c r="X55" s="106"/>
+      <c r="Y55" s="106"/>
+      <c r="Z55" s="106"/>
+      <c r="AA55" s="106"/>
+      <c r="AB55" s="106"/>
+      <c r="AC55" s="107"/>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A56" s="108">
+        <v>50</v>
+      </c>
+      <c r="B56" s="104"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="104"/>
+      <c r="H56" s="104"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="104"/>
+      <c r="K56" s="104"/>
+      <c r="L56" s="104"/>
+      <c r="M56" s="104"/>
+      <c r="N56" s="104"/>
+      <c r="O56" s="104"/>
+      <c r="P56" s="104"/>
+      <c r="Q56" s="104"/>
+      <c r="R56" s="104"/>
+      <c r="S56" s="104"/>
+      <c r="T56" s="104"/>
+      <c r="U56" s="104"/>
+      <c r="V56" s="104"/>
+      <c r="W56" s="104"/>
+      <c r="X56" s="104"/>
+      <c r="Y56" s="104"/>
+      <c r="Z56" s="104"/>
+      <c r="AA56" s="104"/>
+      <c r="AB56" s="104"/>
+      <c r="AC56" s="104"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="L5:AC5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Requirements/Documents/Excel Sheets/Master Sheet for Batch.xlsx
+++ b/Requirements/Documents/Excel Sheets/Master Sheet for Batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rashmi kapoor\Desktop\NSKFDC APP\trunk\Requirements\Documents\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{22F5853B-7B4D-49BD-A5E2-3DE4E4DCFFFE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0FCE1E43-6CE1-4FEC-BA1E-1F3EB862C26B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="670" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="670" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Sheet" sheetId="1" state="hidden" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="DropDown Values" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1 (2)" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="Final Batch Sheet" sheetId="4" r:id="rId5"/>
-    <sheet name="Final Batch Sheet for app" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -395,7 +394,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="971">
   <si>
     <t>FirstNameCandidate</t>
   </si>
@@ -3514,7 +3513,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -3766,39 +3765,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4021,61 +3994,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7850,7 +7768,7 @@
   <dimension ref="A1:I860"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I23"/>
+      <selection activeCell="F14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12729,7 +12647,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -13112,1949 +13030,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306C4471-C85E-4337-A2F0-F889F0FDE365}">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH56"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56:AC56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
-    <col min="19" max="19" width="18" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.85546875" customWidth="1"/>
-    <col min="26" max="26" width="12" customWidth="1"/>
-    <col min="27" max="27" width="17.140625" customWidth="1"/>
-    <col min="28" max="28" width="21.42578125" customWidth="1"/>
-    <col min="29" max="29" width="12.85546875" customWidth="1"/>
-    <col min="30" max="30" width="11.7109375" customWidth="1"/>
-    <col min="31" max="31" width="9.42578125" customWidth="1"/>
-    <col min="32" max="32" width="11.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
-        <v>931</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="90"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
-        <v>909</v>
-      </c>
-      <c r="B2" s="96" t="s">
-        <v>910</v>
-      </c>
-      <c r="C2" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="96" t="s">
-        <v>911</v>
-      </c>
-      <c r="E2" s="96" t="s">
-        <v>967</v>
-      </c>
-      <c r="F2" s="43"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
-        <v>912</v>
-      </c>
-      <c r="B3" s="89" t="s">
-        <v>932</v>
-      </c>
-      <c r="C3" s="89" t="s">
-        <v>933</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>970</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>969</v>
-      </c>
-      <c r="F3" s="43"/>
-    </row>
-    <row r="4" spans="1:34" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-    </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="79" t="s">
-        <v>934</v>
-      </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="59" t="s">
-        <v>937</v>
-      </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="79" t="s">
-        <v>938</v>
-      </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="84"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-    </row>
-    <row r="6" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>935</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>936</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>915</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="50" t="s">
-        <v>916</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>917</v>
-      </c>
-      <c r="K6" s="50" t="s">
-        <v>918</v>
-      </c>
-      <c r="L6" s="50" t="s">
-        <v>939</v>
-      </c>
-      <c r="M6" s="50" t="s">
-        <v>853</v>
-      </c>
-      <c r="N6" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="50" t="s">
-        <v>940</v>
-      </c>
-      <c r="P6" s="50" t="s">
-        <v>922</v>
-      </c>
-      <c r="Q6" s="50" t="s">
-        <v>942</v>
-      </c>
-      <c r="R6" s="50" t="s">
-        <v>941</v>
-      </c>
-      <c r="S6" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="T6" s="51" t="s">
-        <v>943</v>
-      </c>
-      <c r="U6" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="W6" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="X6" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y6" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z6" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA6" s="51" t="s">
-        <v>924</v>
-      </c>
-      <c r="AB6" s="51" t="s">
-        <v>964</v>
-      </c>
-      <c r="AC6" s="52" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="98">
-        <v>1</v>
-      </c>
-      <c r="B7" s="99" t="s">
-        <v>945</v>
-      </c>
-      <c r="C7" s="99" t="s">
-        <v>944</v>
-      </c>
-      <c r="D7" s="99" t="s">
-        <v>946</v>
-      </c>
-      <c r="E7" s="99" t="s">
-        <v>947</v>
-      </c>
-      <c r="F7" s="99" t="s">
-        <v>884</v>
-      </c>
-      <c r="G7" s="100">
-        <v>32172</v>
-      </c>
-      <c r="H7" s="101" t="s">
-        <v>948</v>
-      </c>
-      <c r="I7" s="99" t="s">
-        <v>949</v>
-      </c>
-      <c r="J7" s="99" t="s">
-        <v>946</v>
-      </c>
-      <c r="K7" s="99" t="s">
-        <v>950</v>
-      </c>
-      <c r="L7" s="102" t="s">
-        <v>951</v>
-      </c>
-      <c r="M7" s="99" t="s">
-        <v>952</v>
-      </c>
-      <c r="N7" s="99" t="s">
-        <v>260</v>
-      </c>
-      <c r="O7" s="99" t="s">
-        <v>953</v>
-      </c>
-      <c r="P7" s="99" t="s">
-        <v>954</v>
-      </c>
-      <c r="Q7" s="99" t="s">
-        <v>955</v>
-      </c>
-      <c r="R7" s="99" t="s">
-        <v>956</v>
-      </c>
-      <c r="S7" s="99" t="s">
-        <v>957</v>
-      </c>
-      <c r="T7" s="99" t="s">
-        <v>873</v>
-      </c>
-      <c r="U7" s="99" t="s">
-        <v>958</v>
-      </c>
-      <c r="V7" s="101" t="s">
-        <v>959</v>
-      </c>
-      <c r="W7" s="101" t="s">
-        <v>960</v>
-      </c>
-      <c r="X7" s="101">
-        <v>123456789</v>
-      </c>
-      <c r="Y7" s="101" t="s">
-        <v>961</v>
-      </c>
-      <c r="Z7" s="101" t="s">
-        <v>962</v>
-      </c>
-      <c r="AA7" s="99" t="s">
-        <v>963</v>
-      </c>
-      <c r="AB7" s="101" t="s">
-        <v>965</v>
-      </c>
-      <c r="AC7" s="103" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="98">
-        <v>2</v>
-      </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="99"/>
-      <c r="S8" s="99"/>
-      <c r="T8" s="99"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="101"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="101"/>
-      <c r="Y8" s="101"/>
-      <c r="Z8" s="101"/>
-      <c r="AA8" s="99"/>
-      <c r="AB8" s="101"/>
-      <c r="AC8" s="103"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="98">
-        <v>3</v>
-      </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="99"/>
-      <c r="T9" s="99"/>
-      <c r="U9" s="99"/>
-      <c r="V9" s="101"/>
-      <c r="W9" s="101"/>
-      <c r="X9" s="101"/>
-      <c r="Y9" s="101"/>
-      <c r="Z9" s="101"/>
-      <c r="AA9" s="99"/>
-      <c r="AB9" s="101"/>
-      <c r="AC9" s="103"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="98">
-        <v>4</v>
-      </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="99"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="101"/>
-      <c r="W10" s="101"/>
-      <c r="X10" s="101"/>
-      <c r="Y10" s="101"/>
-      <c r="Z10" s="101"/>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="101"/>
-      <c r="AC10" s="103"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="98">
-        <v>5</v>
-      </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="101"/>
-      <c r="W11" s="101"/>
-      <c r="X11" s="101"/>
-      <c r="Y11" s="101"/>
-      <c r="Z11" s="101"/>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="101"/>
-      <c r="AC11" s="103"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="98">
-        <v>6</v>
-      </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="101"/>
-      <c r="W12" s="101"/>
-      <c r="X12" s="101"/>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="101"/>
-      <c r="AA12" s="99"/>
-      <c r="AB12" s="101"/>
-      <c r="AC12" s="103"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="98">
-        <v>7</v>
-      </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="101"/>
-      <c r="W13" s="101"/>
-      <c r="X13" s="101"/>
-      <c r="Y13" s="101"/>
-      <c r="Z13" s="101"/>
-      <c r="AA13" s="99"/>
-      <c r="AB13" s="101"/>
-      <c r="AC13" s="103"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="98">
-        <v>8</v>
-      </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="101"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="101"/>
-      <c r="AC14" s="103"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="98">
-        <v>9</v>
-      </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="99"/>
-      <c r="T15" s="99"/>
-      <c r="U15" s="99"/>
-      <c r="V15" s="101"/>
-      <c r="W15" s="101"/>
-      <c r="X15" s="101"/>
-      <c r="Y15" s="101"/>
-      <c r="Z15" s="101"/>
-      <c r="AA15" s="99"/>
-      <c r="AB15" s="101"/>
-      <c r="AC15" s="103"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="98">
-        <v>10</v>
-      </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="99"/>
-      <c r="U16" s="99"/>
-      <c r="V16" s="101"/>
-      <c r="W16" s="101"/>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="101"/>
-      <c r="Z16" s="101"/>
-      <c r="AA16" s="99"/>
-      <c r="AB16" s="101"/>
-      <c r="AC16" s="103"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="98">
-        <v>11</v>
-      </c>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="99"/>
-      <c r="T17" s="99"/>
-      <c r="U17" s="99"/>
-      <c r="V17" s="101"/>
-      <c r="W17" s="101"/>
-      <c r="X17" s="101"/>
-      <c r="Y17" s="101"/>
-      <c r="Z17" s="101"/>
-      <c r="AA17" s="99"/>
-      <c r="AB17" s="101"/>
-      <c r="AC17" s="103"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="98">
-        <v>12</v>
-      </c>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="99"/>
-      <c r="U18" s="99"/>
-      <c r="V18" s="101"/>
-      <c r="W18" s="101"/>
-      <c r="X18" s="101"/>
-      <c r="Y18" s="101"/>
-      <c r="Z18" s="101"/>
-      <c r="AA18" s="99"/>
-      <c r="AB18" s="101"/>
-      <c r="AC18" s="103"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="98">
-        <v>13</v>
-      </c>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="99"/>
-      <c r="U19" s="99"/>
-      <c r="V19" s="101"/>
-      <c r="W19" s="101"/>
-      <c r="X19" s="101"/>
-      <c r="Y19" s="101"/>
-      <c r="Z19" s="101"/>
-      <c r="AA19" s="99"/>
-      <c r="AB19" s="101"/>
-      <c r="AC19" s="103"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="98">
-        <v>14</v>
-      </c>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="99"/>
-      <c r="U20" s="99"/>
-      <c r="V20" s="101"/>
-      <c r="W20" s="101"/>
-      <c r="X20" s="101"/>
-      <c r="Y20" s="101"/>
-      <c r="Z20" s="101"/>
-      <c r="AA20" s="99"/>
-      <c r="AB20" s="101"/>
-      <c r="AC20" s="103"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="98">
-        <v>15</v>
-      </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="99"/>
-      <c r="T21" s="99"/>
-      <c r="U21" s="99"/>
-      <c r="V21" s="101"/>
-      <c r="W21" s="101"/>
-      <c r="X21" s="101"/>
-      <c r="Y21" s="101"/>
-      <c r="Z21" s="101"/>
-      <c r="AA21" s="99"/>
-      <c r="AB21" s="101"/>
-      <c r="AC21" s="103"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="98">
-        <v>16</v>
-      </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="99"/>
-      <c r="T22" s="99"/>
-      <c r="U22" s="99"/>
-      <c r="V22" s="101"/>
-      <c r="W22" s="101"/>
-      <c r="X22" s="101"/>
-      <c r="Y22" s="101"/>
-      <c r="Z22" s="101"/>
-      <c r="AA22" s="99"/>
-      <c r="AB22" s="101"/>
-      <c r="AC22" s="103"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="98">
-        <v>17</v>
-      </c>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="99"/>
-      <c r="T23" s="99"/>
-      <c r="U23" s="99"/>
-      <c r="V23" s="101"/>
-      <c r="W23" s="101"/>
-      <c r="X23" s="101"/>
-      <c r="Y23" s="101"/>
-      <c r="Z23" s="101"/>
-      <c r="AA23" s="99"/>
-      <c r="AB23" s="101"/>
-      <c r="AC23" s="103"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="98">
-        <v>18</v>
-      </c>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="99"/>
-      <c r="S24" s="99"/>
-      <c r="T24" s="99"/>
-      <c r="U24" s="99"/>
-      <c r="V24" s="101"/>
-      <c r="W24" s="101"/>
-      <c r="X24" s="101"/>
-      <c r="Y24" s="101"/>
-      <c r="Z24" s="101"/>
-      <c r="AA24" s="99"/>
-      <c r="AB24" s="101"/>
-      <c r="AC24" s="103"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="98">
-        <v>19</v>
-      </c>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="99"/>
-      <c r="U25" s="99"/>
-      <c r="V25" s="101"/>
-      <c r="W25" s="101"/>
-      <c r="X25" s="101"/>
-      <c r="Y25" s="101"/>
-      <c r="Z25" s="101"/>
-      <c r="AA25" s="99"/>
-      <c r="AB25" s="101"/>
-      <c r="AC25" s="103"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="98">
-        <v>20</v>
-      </c>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="99"/>
-      <c r="U26" s="99"/>
-      <c r="V26" s="101"/>
-      <c r="W26" s="101"/>
-      <c r="X26" s="101"/>
-      <c r="Y26" s="101"/>
-      <c r="Z26" s="101"/>
-      <c r="AA26" s="99"/>
-      <c r="AB26" s="101"/>
-      <c r="AC26" s="103"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="98">
-        <v>21</v>
-      </c>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="102"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="99"/>
-      <c r="S27" s="99"/>
-      <c r="T27" s="99"/>
-      <c r="U27" s="99"/>
-      <c r="V27" s="101"/>
-      <c r="W27" s="101"/>
-      <c r="X27" s="101"/>
-      <c r="Y27" s="101"/>
-      <c r="Z27" s="101"/>
-      <c r="AA27" s="99"/>
-      <c r="AB27" s="101"/>
-      <c r="AC27" s="103"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="98">
-        <v>22</v>
-      </c>
-      <c r="B28" s="99"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="99"/>
-      <c r="S28" s="99"/>
-      <c r="T28" s="99"/>
-      <c r="U28" s="99"/>
-      <c r="V28" s="101"/>
-      <c r="W28" s="101"/>
-      <c r="X28" s="101"/>
-      <c r="Y28" s="101"/>
-      <c r="Z28" s="101"/>
-      <c r="AA28" s="99"/>
-      <c r="AB28" s="101"/>
-      <c r="AC28" s="103"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="98">
-        <v>23</v>
-      </c>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="99"/>
-      <c r="U29" s="99"/>
-      <c r="V29" s="101"/>
-      <c r="W29" s="101"/>
-      <c r="X29" s="101"/>
-      <c r="Y29" s="101"/>
-      <c r="Z29" s="101"/>
-      <c r="AA29" s="99"/>
-      <c r="AB29" s="101"/>
-      <c r="AC29" s="103"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="98">
-        <v>24</v>
-      </c>
-      <c r="B30" s="99"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="102"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="99"/>
-      <c r="S30" s="99"/>
-      <c r="T30" s="99"/>
-      <c r="U30" s="99"/>
-      <c r="V30" s="101"/>
-      <c r="W30" s="101"/>
-      <c r="X30" s="101"/>
-      <c r="Y30" s="101"/>
-      <c r="Z30" s="101"/>
-      <c r="AA30" s="99"/>
-      <c r="AB30" s="101"/>
-      <c r="AC30" s="103"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="98">
-        <v>25</v>
-      </c>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="99"/>
-      <c r="S31" s="99"/>
-      <c r="T31" s="99"/>
-      <c r="U31" s="99"/>
-      <c r="V31" s="101"/>
-      <c r="W31" s="101"/>
-      <c r="X31" s="101"/>
-      <c r="Y31" s="101"/>
-      <c r="Z31" s="101"/>
-      <c r="AA31" s="99"/>
-      <c r="AB31" s="101"/>
-      <c r="AC31" s="103"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="98">
-        <v>26</v>
-      </c>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="102"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="99"/>
-      <c r="S32" s="99"/>
-      <c r="T32" s="99"/>
-      <c r="U32" s="99"/>
-      <c r="V32" s="101"/>
-      <c r="W32" s="101"/>
-      <c r="X32" s="101"/>
-      <c r="Y32" s="101"/>
-      <c r="Z32" s="101"/>
-      <c r="AA32" s="99"/>
-      <c r="AB32" s="101"/>
-      <c r="AC32" s="103"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="98">
-        <v>27</v>
-      </c>
-      <c r="B33" s="99"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="99"/>
-      <c r="S33" s="99"/>
-      <c r="T33" s="99"/>
-      <c r="U33" s="99"/>
-      <c r="V33" s="101"/>
-      <c r="W33" s="101"/>
-      <c r="X33" s="101"/>
-      <c r="Y33" s="101"/>
-      <c r="Z33" s="101"/>
-      <c r="AA33" s="99"/>
-      <c r="AB33" s="101"/>
-      <c r="AC33" s="103"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="98">
-        <v>28</v>
-      </c>
-      <c r="B34" s="99"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="102"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="99"/>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="99"/>
-      <c r="S34" s="99"/>
-      <c r="T34" s="99"/>
-      <c r="U34" s="99"/>
-      <c r="V34" s="101"/>
-      <c r="W34" s="101"/>
-      <c r="X34" s="101"/>
-      <c r="Y34" s="101"/>
-      <c r="Z34" s="101"/>
-      <c r="AA34" s="99"/>
-      <c r="AB34" s="101"/>
-      <c r="AC34" s="103"/>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="98">
-        <v>29</v>
-      </c>
-      <c r="B35" s="99"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="99"/>
-      <c r="K35" s="99"/>
-      <c r="L35" s="102"/>
-      <c r="M35" s="99"/>
-      <c r="N35" s="99"/>
-      <c r="O35" s="99"/>
-      <c r="P35" s="99"/>
-      <c r="Q35" s="99"/>
-      <c r="R35" s="99"/>
-      <c r="S35" s="99"/>
-      <c r="T35" s="99"/>
-      <c r="U35" s="99"/>
-      <c r="V35" s="101"/>
-      <c r="W35" s="101"/>
-      <c r="X35" s="101"/>
-      <c r="Y35" s="101"/>
-      <c r="Z35" s="101"/>
-      <c r="AA35" s="99"/>
-      <c r="AB35" s="101"/>
-      <c r="AC35" s="103"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="98">
-        <v>30</v>
-      </c>
-      <c r="B36" s="99"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="99"/>
-      <c r="K36" s="99"/>
-      <c r="L36" s="102"/>
-      <c r="M36" s="99"/>
-      <c r="N36" s="99"/>
-      <c r="O36" s="99"/>
-      <c r="P36" s="99"/>
-      <c r="Q36" s="99"/>
-      <c r="R36" s="99"/>
-      <c r="S36" s="99"/>
-      <c r="T36" s="99"/>
-      <c r="U36" s="99"/>
-      <c r="V36" s="101"/>
-      <c r="W36" s="101"/>
-      <c r="X36" s="101"/>
-      <c r="Y36" s="101"/>
-      <c r="Z36" s="101"/>
-      <c r="AA36" s="99"/>
-      <c r="AB36" s="101"/>
-      <c r="AC36" s="103"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="98">
-        <v>31</v>
-      </c>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="102"/>
-      <c r="M37" s="99"/>
-      <c r="N37" s="99"/>
-      <c r="O37" s="99"/>
-      <c r="P37" s="99"/>
-      <c r="Q37" s="99"/>
-      <c r="R37" s="99"/>
-      <c r="S37" s="99"/>
-      <c r="T37" s="99"/>
-      <c r="U37" s="99"/>
-      <c r="V37" s="101"/>
-      <c r="W37" s="101"/>
-      <c r="X37" s="101"/>
-      <c r="Y37" s="101"/>
-      <c r="Z37" s="101"/>
-      <c r="AA37" s="99"/>
-      <c r="AB37" s="101"/>
-      <c r="AC37" s="103"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="98">
-        <v>32</v>
-      </c>
-      <c r="B38" s="99"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="101"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="102"/>
-      <c r="M38" s="99"/>
-      <c r="N38" s="99"/>
-      <c r="O38" s="99"/>
-      <c r="P38" s="99"/>
-      <c r="Q38" s="99"/>
-      <c r="R38" s="99"/>
-      <c r="S38" s="99"/>
-      <c r="T38" s="99"/>
-      <c r="U38" s="99"/>
-      <c r="V38" s="101"/>
-      <c r="W38" s="101"/>
-      <c r="X38" s="101"/>
-      <c r="Y38" s="101"/>
-      <c r="Z38" s="101"/>
-      <c r="AA38" s="99"/>
-      <c r="AB38" s="101"/>
-      <c r="AC38" s="103"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="98">
-        <v>33</v>
-      </c>
-      <c r="B39" s="99"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="99"/>
-      <c r="K39" s="99"/>
-      <c r="L39" s="102"/>
-      <c r="M39" s="99"/>
-      <c r="N39" s="99"/>
-      <c r="O39" s="99"/>
-      <c r="P39" s="99"/>
-      <c r="Q39" s="99"/>
-      <c r="R39" s="99"/>
-      <c r="S39" s="99"/>
-      <c r="T39" s="99"/>
-      <c r="U39" s="99"/>
-      <c r="V39" s="101"/>
-      <c r="W39" s="101"/>
-      <c r="X39" s="101"/>
-      <c r="Y39" s="101"/>
-      <c r="Z39" s="101"/>
-      <c r="AA39" s="99"/>
-      <c r="AB39" s="101"/>
-      <c r="AC39" s="103"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="98">
-        <v>34</v>
-      </c>
-      <c r="B40" s="99"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="102"/>
-      <c r="M40" s="99"/>
-      <c r="N40" s="99"/>
-      <c r="O40" s="99"/>
-      <c r="P40" s="99"/>
-      <c r="Q40" s="99"/>
-      <c r="R40" s="99"/>
-      <c r="S40" s="99"/>
-      <c r="T40" s="99"/>
-      <c r="U40" s="99"/>
-      <c r="V40" s="101"/>
-      <c r="W40" s="101"/>
-      <c r="X40" s="101"/>
-      <c r="Y40" s="101"/>
-      <c r="Z40" s="101"/>
-      <c r="AA40" s="99"/>
-      <c r="AB40" s="101"/>
-      <c r="AC40" s="103"/>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="98">
-        <v>35</v>
-      </c>
-      <c r="B41" s="99"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="99"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="102"/>
-      <c r="M41" s="99"/>
-      <c r="N41" s="99"/>
-      <c r="O41" s="99"/>
-      <c r="P41" s="99"/>
-      <c r="Q41" s="99"/>
-      <c r="R41" s="99"/>
-      <c r="S41" s="99"/>
-      <c r="T41" s="99"/>
-      <c r="U41" s="99"/>
-      <c r="V41" s="101"/>
-      <c r="W41" s="101"/>
-      <c r="X41" s="101"/>
-      <c r="Y41" s="101"/>
-      <c r="Z41" s="101"/>
-      <c r="AA41" s="99"/>
-      <c r="AB41" s="101"/>
-      <c r="AC41" s="103"/>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" s="98">
-        <v>36</v>
-      </c>
-      <c r="B42" s="99"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="100"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="102"/>
-      <c r="M42" s="99"/>
-      <c r="N42" s="99"/>
-      <c r="O42" s="99"/>
-      <c r="P42" s="99"/>
-      <c r="Q42" s="99"/>
-      <c r="R42" s="99"/>
-      <c r="S42" s="99"/>
-      <c r="T42" s="99"/>
-      <c r="U42" s="99"/>
-      <c r="V42" s="101"/>
-      <c r="W42" s="101"/>
-      <c r="X42" s="101"/>
-      <c r="Y42" s="101"/>
-      <c r="Z42" s="101"/>
-      <c r="AA42" s="99"/>
-      <c r="AB42" s="101"/>
-      <c r="AC42" s="103"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" s="98">
-        <v>37</v>
-      </c>
-      <c r="B43" s="99"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="99"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="102"/>
-      <c r="M43" s="99"/>
-      <c r="N43" s="99"/>
-      <c r="O43" s="99"/>
-      <c r="P43" s="99"/>
-      <c r="Q43" s="99"/>
-      <c r="R43" s="99"/>
-      <c r="S43" s="99"/>
-      <c r="T43" s="99"/>
-      <c r="U43" s="99"/>
-      <c r="V43" s="101"/>
-      <c r="W43" s="101"/>
-      <c r="X43" s="101"/>
-      <c r="Y43" s="101"/>
-      <c r="Z43" s="101"/>
-      <c r="AA43" s="99"/>
-      <c r="AB43" s="101"/>
-      <c r="AC43" s="103"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A44" s="98">
-        <v>38</v>
-      </c>
-      <c r="B44" s="99"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="99"/>
-      <c r="J44" s="99"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="102"/>
-      <c r="M44" s="99"/>
-      <c r="N44" s="99"/>
-      <c r="O44" s="99"/>
-      <c r="P44" s="99"/>
-      <c r="Q44" s="99"/>
-      <c r="R44" s="99"/>
-      <c r="S44" s="99"/>
-      <c r="T44" s="99"/>
-      <c r="U44" s="99"/>
-      <c r="V44" s="101"/>
-      <c r="W44" s="101"/>
-      <c r="X44" s="101"/>
-      <c r="Y44" s="101"/>
-      <c r="Z44" s="101"/>
-      <c r="AA44" s="99"/>
-      <c r="AB44" s="101"/>
-      <c r="AC44" s="103"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" s="98">
-        <v>39</v>
-      </c>
-      <c r="B45" s="99"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="100"/>
-      <c r="H45" s="101"/>
-      <c r="I45" s="99"/>
-      <c r="J45" s="99"/>
-      <c r="K45" s="99"/>
-      <c r="L45" s="102"/>
-      <c r="M45" s="99"/>
-      <c r="N45" s="99"/>
-      <c r="O45" s="99"/>
-      <c r="P45" s="99"/>
-      <c r="Q45" s="99"/>
-      <c r="R45" s="99"/>
-      <c r="S45" s="99"/>
-      <c r="T45" s="99"/>
-      <c r="U45" s="99"/>
-      <c r="V45" s="101"/>
-      <c r="W45" s="101"/>
-      <c r="X45" s="101"/>
-      <c r="Y45" s="101"/>
-      <c r="Z45" s="101"/>
-      <c r="AA45" s="99"/>
-      <c r="AB45" s="101"/>
-      <c r="AC45" s="103"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" s="98">
-        <v>40</v>
-      </c>
-      <c r="B46" s="99"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="99"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="99"/>
-      <c r="J46" s="99"/>
-      <c r="K46" s="99"/>
-      <c r="L46" s="102"/>
-      <c r="M46" s="99"/>
-      <c r="N46" s="99"/>
-      <c r="O46" s="99"/>
-      <c r="P46" s="99"/>
-      <c r="Q46" s="99"/>
-      <c r="R46" s="99"/>
-      <c r="S46" s="99"/>
-      <c r="T46" s="99"/>
-      <c r="U46" s="99"/>
-      <c r="V46" s="101"/>
-      <c r="W46" s="101"/>
-      <c r="X46" s="101"/>
-      <c r="Y46" s="101"/>
-      <c r="Z46" s="101"/>
-      <c r="AA46" s="99"/>
-      <c r="AB46" s="101"/>
-      <c r="AC46" s="103"/>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47" s="98">
-        <v>41</v>
-      </c>
-      <c r="B47" s="99"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="99"/>
-      <c r="J47" s="99"/>
-      <c r="K47" s="99"/>
-      <c r="L47" s="102"/>
-      <c r="M47" s="99"/>
-      <c r="N47" s="99"/>
-      <c r="O47" s="99"/>
-      <c r="P47" s="99"/>
-      <c r="Q47" s="99"/>
-      <c r="R47" s="99"/>
-      <c r="S47" s="99"/>
-      <c r="T47" s="99"/>
-      <c r="U47" s="99"/>
-      <c r="V47" s="101"/>
-      <c r="W47" s="101"/>
-      <c r="X47" s="101"/>
-      <c r="Y47" s="101"/>
-      <c r="Z47" s="101"/>
-      <c r="AA47" s="99"/>
-      <c r="AB47" s="101"/>
-      <c r="AC47" s="103"/>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48" s="98">
-        <v>42</v>
-      </c>
-      <c r="B48" s="99"/>
-      <c r="C48" s="99"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="99"/>
-      <c r="J48" s="99"/>
-      <c r="K48" s="99"/>
-      <c r="L48" s="102"/>
-      <c r="M48" s="99"/>
-      <c r="N48" s="99"/>
-      <c r="O48" s="99"/>
-      <c r="P48" s="99"/>
-      <c r="Q48" s="99"/>
-      <c r="R48" s="99"/>
-      <c r="S48" s="99"/>
-      <c r="T48" s="99"/>
-      <c r="U48" s="99"/>
-      <c r="V48" s="101"/>
-      <c r="W48" s="101"/>
-      <c r="X48" s="101"/>
-      <c r="Y48" s="101"/>
-      <c r="Z48" s="101"/>
-      <c r="AA48" s="99"/>
-      <c r="AB48" s="101"/>
-      <c r="AC48" s="103"/>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A49" s="98">
-        <v>43</v>
-      </c>
-      <c r="B49" s="99"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="101"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="99"/>
-      <c r="K49" s="99"/>
-      <c r="L49" s="102"/>
-      <c r="M49" s="99"/>
-      <c r="N49" s="99"/>
-      <c r="O49" s="99"/>
-      <c r="P49" s="99"/>
-      <c r="Q49" s="99"/>
-      <c r="R49" s="99"/>
-      <c r="S49" s="99"/>
-      <c r="T49" s="99"/>
-      <c r="U49" s="99"/>
-      <c r="V49" s="101"/>
-      <c r="W49" s="101"/>
-      <c r="X49" s="101"/>
-      <c r="Y49" s="101"/>
-      <c r="Z49" s="101"/>
-      <c r="AA49" s="99"/>
-      <c r="AB49" s="101"/>
-      <c r="AC49" s="103"/>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A50" s="98">
-        <v>44</v>
-      </c>
-      <c r="B50" s="104"/>
-      <c r="C50" s="104"/>
-      <c r="D50" s="104"/>
-      <c r="E50" s="104"/>
-      <c r="F50" s="104"/>
-      <c r="G50" s="104"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="104"/>
-      <c r="J50" s="104"/>
-      <c r="K50" s="104"/>
-      <c r="L50" s="104"/>
-      <c r="M50" s="104"/>
-      <c r="N50" s="104"/>
-      <c r="O50" s="104"/>
-      <c r="P50" s="104"/>
-      <c r="Q50" s="104"/>
-      <c r="R50" s="104"/>
-      <c r="S50" s="104"/>
-      <c r="T50" s="104"/>
-      <c r="U50" s="104"/>
-      <c r="V50" s="104"/>
-      <c r="W50" s="104"/>
-      <c r="X50" s="104"/>
-      <c r="Y50" s="104"/>
-      <c r="Z50" s="104"/>
-      <c r="AA50" s="104"/>
-      <c r="AB50" s="104"/>
-      <c r="AC50" s="105"/>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A51" s="98">
-        <v>45</v>
-      </c>
-      <c r="B51" s="106"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="106"/>
-      <c r="G51" s="106"/>
-      <c r="H51" s="106"/>
-      <c r="I51" s="106"/>
-      <c r="J51" s="106"/>
-      <c r="K51" s="106"/>
-      <c r="L51" s="106"/>
-      <c r="M51" s="106"/>
-      <c r="N51" s="106"/>
-      <c r="O51" s="106"/>
-      <c r="P51" s="106"/>
-      <c r="Q51" s="106"/>
-      <c r="R51" s="106"/>
-      <c r="S51" s="106"/>
-      <c r="T51" s="106"/>
-      <c r="U51" s="106"/>
-      <c r="V51" s="106"/>
-      <c r="W51" s="106"/>
-      <c r="X51" s="106"/>
-      <c r="Y51" s="106"/>
-      <c r="Z51" s="106"/>
-      <c r="AA51" s="106"/>
-      <c r="AB51" s="106"/>
-      <c r="AC51" s="107"/>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A52" s="98">
-        <v>46</v>
-      </c>
-      <c r="B52" s="106"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="106"/>
-      <c r="E52" s="106"/>
-      <c r="F52" s="106"/>
-      <c r="G52" s="106"/>
-      <c r="H52" s="106"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="106"/>
-      <c r="K52" s="106"/>
-      <c r="L52" s="106"/>
-      <c r="M52" s="106"/>
-      <c r="N52" s="106"/>
-      <c r="O52" s="106"/>
-      <c r="P52" s="106"/>
-      <c r="Q52" s="106"/>
-      <c r="R52" s="106"/>
-      <c r="S52" s="106"/>
-      <c r="T52" s="106"/>
-      <c r="U52" s="106"/>
-      <c r="V52" s="106"/>
-      <c r="W52" s="106"/>
-      <c r="X52" s="106"/>
-      <c r="Y52" s="106"/>
-      <c r="Z52" s="106"/>
-      <c r="AA52" s="106"/>
-      <c r="AB52" s="106"/>
-      <c r="AC52" s="107"/>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A53" s="98">
-        <v>47</v>
-      </c>
-      <c r="B53" s="106"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="106"/>
-      <c r="E53" s="106"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="106"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="106"/>
-      <c r="K53" s="106"/>
-      <c r="L53" s="106"/>
-      <c r="M53" s="106"/>
-      <c r="N53" s="106"/>
-      <c r="O53" s="106"/>
-      <c r="P53" s="106"/>
-      <c r="Q53" s="106"/>
-      <c r="R53" s="106"/>
-      <c r="S53" s="106"/>
-      <c r="T53" s="106"/>
-      <c r="U53" s="106"/>
-      <c r="V53" s="106"/>
-      <c r="W53" s="106"/>
-      <c r="X53" s="106"/>
-      <c r="Y53" s="106"/>
-      <c r="Z53" s="106"/>
-      <c r="AA53" s="106"/>
-      <c r="AB53" s="106"/>
-      <c r="AC53" s="107"/>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A54" s="98">
-        <v>48</v>
-      </c>
-      <c r="B54" s="106"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="106"/>
-      <c r="E54" s="106"/>
-      <c r="F54" s="106"/>
-      <c r="G54" s="106"/>
-      <c r="H54" s="106"/>
-      <c r="I54" s="106"/>
-      <c r="J54" s="106"/>
-      <c r="K54" s="106"/>
-      <c r="L54" s="106"/>
-      <c r="M54" s="106"/>
-      <c r="N54" s="106"/>
-      <c r="O54" s="106"/>
-      <c r="P54" s="106"/>
-      <c r="Q54" s="106"/>
-      <c r="R54" s="106"/>
-      <c r="S54" s="106"/>
-      <c r="T54" s="106"/>
-      <c r="U54" s="106"/>
-      <c r="V54" s="106"/>
-      <c r="W54" s="106"/>
-      <c r="X54" s="106"/>
-      <c r="Y54" s="106"/>
-      <c r="Z54" s="106"/>
-      <c r="AA54" s="106"/>
-      <c r="AB54" s="106"/>
-      <c r="AC54" s="107"/>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A55" s="98">
-        <v>49</v>
-      </c>
-      <c r="B55" s="106"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="106"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="106"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="106"/>
-      <c r="I55" s="106"/>
-      <c r="J55" s="106"/>
-      <c r="K55" s="106"/>
-      <c r="L55" s="106"/>
-      <c r="M55" s="106"/>
-      <c r="N55" s="106"/>
-      <c r="O55" s="106"/>
-      <c r="P55" s="106"/>
-      <c r="Q55" s="106"/>
-      <c r="R55" s="106"/>
-      <c r="S55" s="106"/>
-      <c r="T55" s="106"/>
-      <c r="U55" s="106"/>
-      <c r="V55" s="106"/>
-      <c r="W55" s="106"/>
-      <c r="X55" s="106"/>
-      <c r="Y55" s="106"/>
-      <c r="Z55" s="106"/>
-      <c r="AA55" s="106"/>
-      <c r="AB55" s="106"/>
-      <c r="AC55" s="107"/>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A56" s="108">
-        <v>50</v>
-      </c>
-      <c r="B56" s="104"/>
-      <c r="C56" s="104"/>
-      <c r="D56" s="104"/>
-      <c r="E56" s="104"/>
-      <c r="F56" s="104"/>
-      <c r="G56" s="104"/>
-      <c r="H56" s="104"/>
-      <c r="I56" s="104"/>
-      <c r="J56" s="104"/>
-      <c r="K56" s="104"/>
-      <c r="L56" s="104"/>
-      <c r="M56" s="104"/>
-      <c r="N56" s="104"/>
-      <c r="O56" s="104"/>
-      <c r="P56" s="104"/>
-      <c r="Q56" s="104"/>
-      <c r="R56" s="104"/>
-      <c r="S56" s="104"/>
-      <c r="T56" s="104"/>
-      <c r="U56" s="104"/>
-      <c r="V56" s="104"/>
-      <c r="W56" s="104"/>
-      <c r="X56" s="104"/>
-      <c r="Y56" s="104"/>
-      <c r="Z56" s="104"/>
-      <c r="AA56" s="104"/>
-      <c r="AB56" s="104"/>
-      <c r="AC56" s="104"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="L5:AC5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>